--- a/src/main/resources/net/clementlevallois/umigon/heuristics/lexicons/es/es.xlsx
+++ b/src/main/resources/net/clementlevallois/umigon/heuristics/lexicons/es/es.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levallois\open\nocode-app-functions\umigon-family\umigon-heuristics\src\main\java\net\clementlevallois\umigon\heuristics\resources\es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levallois\open\nocode-app-functions\umigon-lexicons\src\main\resources\net\clementlevallois\umigon\heuristics\lexicons\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A941748-8738-49B1-8812-981842E4BAFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AF2501-5039-4991-A7C5-BAB1AB81534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-9225" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_positive tone" sheetId="1" r:id="rId1"/>
@@ -1252,9 +1252,6 @@
     <t>isImmediatelyFollowedBySpecificTerm///de su parte</t>
   </si>
   <si>
-    <t>!isImmediatelyPrecededByANegationis+++!isImmediatelyFollowedBySpecificTerm///de</t>
-  </si>
-  <si>
     <t>isImmediatelyFollowedBySpecificTerm///de los pocos|de los raros|de los únicos</t>
   </si>
   <si>
@@ -3959,6 +3956,9 @@
   </si>
   <si>
     <t>if(A || B) {0611} else {10}</t>
+  </si>
+  <si>
+    <t>!isImmediatelyPrecededByANegation+++!isImmediatelyFollowedBySpecificTerm///de</t>
   </si>
 </sst>
 </file>
@@ -4792,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZT734"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B70" sqref="A1:C373"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -8013,7 +8013,7 @@
         <v>219</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>377</v>
+        <v>1279</v>
       </c>
       <c r="C203" s="14" t="s">
         <v>363</v>
@@ -8562,7 +8562,7 @@
         <v>257</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C254" s="14" t="s">
         <v>43</v>
@@ -8813,7 +8813,7 @@
         <v>279</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C277" s="14" t="s">
         <v>43</v>
@@ -9370,7 +9370,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C328" s="14" t="s">
         <v>369</v>
@@ -9542,7 +9542,7 @@
         <v>335</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C344" s="14" t="s">
         <v>44</v>
@@ -9584,7 +9584,7 @@
         <v>338</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C348" s="14" t="s">
         <v>370</v>
@@ -11207,7 +11207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C857"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A494" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A503" sqref="A503:XFD504"/>
     </sheetView>
   </sheetViews>
@@ -11221,7 +11221,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14" t="s">
@@ -11230,7 +11230,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
@@ -11239,10 +11239,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>45</v>
@@ -11250,7 +11250,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
@@ -11259,7 +11259,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>0</v>
@@ -11270,7 +11270,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>0</v>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
@@ -11290,7 +11290,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
@@ -11299,7 +11299,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
@@ -11317,7 +11317,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
@@ -11326,7 +11326,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
@@ -11335,7 +11335,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>0</v>
@@ -11346,7 +11346,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>0</v>
@@ -11357,7 +11357,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>0</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>0</v>
@@ -11379,10 +11379,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>45</v>
@@ -11390,7 +11390,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
@@ -11399,7 +11399,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
@@ -11408,7 +11408,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
@@ -11417,7 +11417,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
@@ -11426,7 +11426,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>0</v>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>0</v>
@@ -11448,7 +11448,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>0</v>
@@ -11459,7 +11459,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>0</v>
@@ -11470,7 +11470,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>0</v>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
@@ -11490,7 +11490,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>0</v>
@@ -11501,7 +11501,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
@@ -11510,7 +11510,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
@@ -11519,10 +11519,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>45</v>
@@ -11530,7 +11530,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14" t="s">
@@ -11539,7 +11539,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
@@ -11548,7 +11548,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14" t="s">
@@ -11557,7 +11557,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>0</v>
@@ -11568,7 +11568,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>0</v>
@@ -11579,7 +11579,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>0</v>
@@ -11590,18 +11590,18 @@
     </row>
     <row r="38" spans="1:3" ht="29">
       <c r="A38" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14" t="s">
@@ -11610,7 +11610,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>0</v>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>0</v>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>0</v>
@@ -11643,7 +11643,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>0</v>
@@ -11654,7 +11654,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>0</v>
@@ -11665,7 +11665,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>361</v>
@@ -11676,7 +11676,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
@@ -11694,7 +11694,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14" t="s">
@@ -11703,7 +11703,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
@@ -11712,7 +11712,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>0</v>
@@ -11723,7 +11723,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
@@ -11732,7 +11732,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="14" t="s">
@@ -11741,7 +11741,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
@@ -11750,7 +11750,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14" t="s">
@@ -11759,7 +11759,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>0</v>
@@ -11770,7 +11770,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>0</v>
@@ -11781,10 +11781,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>45</v>
@@ -11792,7 +11792,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>0</v>
@@ -11803,7 +11803,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="14" t="s">
@@ -11812,7 +11812,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>0</v>
@@ -11823,7 +11823,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="14" t="s">
@@ -11832,7 +11832,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="14" t="s">
@@ -11841,7 +11841,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>0</v>
@@ -11852,7 +11852,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>0</v>
@@ -11885,7 +11885,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>0</v>
@@ -11896,7 +11896,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>0</v>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="14" t="s">
@@ -11916,7 +11916,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>0</v>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>0</v>
@@ -11938,7 +11938,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>0</v>
@@ -11949,7 +11949,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B73" s="14"/>
       <c r="C73" s="14" t="s">
@@ -11958,10 +11958,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>46</v>
@@ -11969,10 +11969,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>46</v>
@@ -11980,7 +11980,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>0</v>
@@ -11991,7 +11991,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>0</v>
@@ -12002,7 +12002,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="14" t="s">
@@ -12011,7 +12011,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>0</v>
@@ -12022,7 +12022,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="14" t="s">
@@ -12031,7 +12031,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>0</v>
@@ -12042,7 +12042,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>0</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>0</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>0</v>
@@ -12084,7 +12084,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>0</v>
@@ -12095,7 +12095,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>0</v>
@@ -12106,7 +12106,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>0</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B89" s="14"/>
       <c r="C89" s="14" t="s">
@@ -12126,7 +12126,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>0</v>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>0</v>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14" t="s">
@@ -12157,10 +12157,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>45</v>
@@ -12168,7 +12168,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>0</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>0</v>
@@ -12190,7 +12190,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B96" s="14"/>
       <c r="C96" s="14" t="s">
@@ -12199,7 +12199,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>0</v>
@@ -12210,7 +12210,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>0</v>
@@ -12221,7 +12221,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B99" s="14"/>
       <c r="C99" s="14" t="s">
@@ -12230,7 +12230,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B100" s="14"/>
       <c r="C100" s="14" t="s">
@@ -12239,7 +12239,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>0</v>
@@ -12250,7 +12250,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>0</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>0</v>
@@ -12272,7 +12272,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>0</v>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>0</v>
@@ -12303,7 +12303,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>0</v>
@@ -12314,7 +12314,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>0</v>
@@ -12325,7 +12325,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14" t="s">
@@ -12334,7 +12334,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B110" s="14"/>
       <c r="C110" s="14" t="s">
@@ -12343,7 +12343,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>0</v>
@@ -12354,7 +12354,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>0</v>
@@ -12365,7 +12365,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>0</v>
@@ -12376,7 +12376,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>0</v>
@@ -12387,7 +12387,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B115" s="14" t="s">
         <v>0</v>
@@ -12398,7 +12398,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>0</v>
@@ -12409,7 +12409,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>0</v>
@@ -12420,7 +12420,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B118" s="14" t="s">
         <v>0</v>
@@ -12431,7 +12431,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B119" s="14" t="s">
         <v>0</v>
@@ -12442,7 +12442,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>0</v>
@@ -12453,7 +12453,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>0</v>
@@ -12464,7 +12464,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B122" s="14" t="s">
         <v>0</v>
@@ -12475,7 +12475,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>0</v>
@@ -12486,7 +12486,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>0</v>
@@ -12497,7 +12497,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>0</v>
@@ -12508,7 +12508,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>0</v>
@@ -12519,7 +12519,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>0</v>
@@ -12530,7 +12530,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>0</v>
@@ -12541,7 +12541,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>0</v>
@@ -12552,7 +12552,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>0</v>
@@ -12563,7 +12563,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B131" s="14" t="s">
         <v>0</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>0</v>
@@ -12596,7 +12596,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>0</v>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B135" s="14" t="s">
         <v>0</v>
@@ -12618,7 +12618,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B136" s="14" t="s">
         <v>0</v>
@@ -12629,7 +12629,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B137" s="14"/>
       <c r="C137" s="14" t="s">
@@ -12638,7 +12638,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B138" s="14"/>
       <c r="C138" s="14" t="s">
@@ -12647,10 +12647,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>45</v>
@@ -12658,7 +12658,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B140" s="14"/>
       <c r="C140" s="14" t="s">
@@ -12667,7 +12667,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B141" s="14"/>
       <c r="C141" s="14" t="s">
@@ -12676,7 +12676,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B142" s="14"/>
       <c r="C142" s="14" t="s">
@@ -12685,7 +12685,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B143" s="14" t="s">
         <v>0</v>
@@ -12696,7 +12696,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B144" s="14"/>
       <c r="C144" s="14" t="s">
@@ -12705,7 +12705,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B145" s="14"/>
       <c r="C145" s="14" t="s">
@@ -12714,7 +12714,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B146" s="14"/>
       <c r="C146" s="14" t="s">
@@ -12723,7 +12723,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B147" s="14"/>
       <c r="C147" s="14" t="s">
@@ -12732,7 +12732,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>0</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>0</v>
@@ -12754,7 +12754,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B150" s="14" t="s">
         <v>0</v>
@@ -12765,7 +12765,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B151" s="14" t="s">
         <v>0</v>
@@ -12776,7 +12776,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B152" s="14"/>
       <c r="C152" s="14" t="s">
@@ -12785,7 +12785,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B153" s="14"/>
       <c r="C153" s="14" t="s">
@@ -12794,7 +12794,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B154" s="14"/>
       <c r="C154" s="14" t="s">
@@ -12803,7 +12803,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B155" s="14"/>
       <c r="C155" s="14" t="s">
@@ -12812,7 +12812,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B156" s="14"/>
       <c r="C156" s="14" t="s">
@@ -12821,7 +12821,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B157" s="14"/>
       <c r="C157" s="14" t="s">
@@ -12830,7 +12830,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B158" s="14"/>
       <c r="C158" s="14" t="s">
@@ -12839,7 +12839,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>0</v>
@@ -12850,7 +12850,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>0</v>
@@ -12861,7 +12861,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B161" s="14" t="s">
         <v>0</v>
@@ -12872,7 +12872,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B162" s="14"/>
       <c r="C162" s="14" t="s">
@@ -12881,7 +12881,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B163" s="14" t="s">
         <v>0</v>
@@ -12892,7 +12892,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B164" s="14" t="s">
         <v>0</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B165" s="14"/>
       <c r="C165" s="14" t="s">
@@ -12912,10 +12912,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C166" s="14" t="s">
         <v>45</v>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>0</v>
@@ -12934,7 +12934,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B168" s="14" t="s">
         <v>0</v>
@@ -12945,7 +12945,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>0</v>
@@ -12956,7 +12956,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B170" s="14"/>
       <c r="C170" s="14" t="s">
@@ -12965,7 +12965,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B171" s="14"/>
       <c r="C171" s="14" t="s">
@@ -12974,7 +12974,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>0</v>
@@ -12985,7 +12985,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>0</v>
@@ -12996,7 +12996,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B174" s="14"/>
       <c r="C174" s="14" t="s">
@@ -13014,7 +13014,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>0</v>
@@ -13025,7 +13025,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>0</v>
@@ -13036,7 +13036,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>0</v>
@@ -13047,18 +13047,18 @@
     </row>
     <row r="179" spans="1:3" ht="29">
       <c r="A179" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B179" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C179" s="14" t="s">
         <v>1058</v>
-      </c>
-      <c r="C179" s="14" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B180" s="14" t="s">
         <v>0</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>0</v>
@@ -13080,7 +13080,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B182" s="14"/>
       <c r="C182" s="14" t="s">
@@ -13089,7 +13089,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>0</v>
@@ -13100,7 +13100,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>0</v>
@@ -13111,7 +13111,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B185" s="14" t="s">
         <v>0</v>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B186" s="14" t="s">
         <v>0</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B187" s="14"/>
       <c r="C187" s="14" t="s">
@@ -13142,7 +13142,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B188" s="14" t="s">
         <v>0</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>0</v>
@@ -13164,7 +13164,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>0</v>
@@ -13175,7 +13175,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>0</v>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B192" s="14"/>
       <c r="C192" s="14" t="s">
@@ -13195,7 +13195,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B193" s="14"/>
       <c r="C193" s="14" t="s">
@@ -13204,7 +13204,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B194" s="14"/>
       <c r="C194" s="14" t="s">
@@ -13213,7 +13213,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>0</v>
@@ -13224,7 +13224,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>0</v>
@@ -13235,7 +13235,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>0</v>
@@ -13246,7 +13246,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B198" s="14" t="s">
         <v>361</v>
@@ -13257,7 +13257,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B199" s="14" t="s">
         <v>0</v>
@@ -13268,7 +13268,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B200" s="14" t="s">
         <v>0</v>
@@ -13279,7 +13279,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B201" s="14"/>
       <c r="C201" s="14" t="s">
@@ -13288,7 +13288,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B202" s="14"/>
       <c r="C202" s="14" t="s">
@@ -13297,7 +13297,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B203" s="14"/>
       <c r="C203" s="14" t="s">
@@ -13306,7 +13306,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B204" s="14"/>
       <c r="C204" s="14" t="s">
@@ -13315,7 +13315,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B205" s="14"/>
       <c r="C205" s="14" t="s">
@@ -13324,7 +13324,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B206" s="14"/>
       <c r="C206" s="14" t="s">
@@ -13333,7 +13333,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B207" s="14"/>
       <c r="C207" s="14" t="s">
@@ -13342,7 +13342,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B208" s="14"/>
       <c r="C208" s="14" t="s">
@@ -13351,7 +13351,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B209" s="14"/>
       <c r="C209" s="14" t="s">
@@ -13360,7 +13360,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B210" s="14"/>
       <c r="C210" s="14" t="s">
@@ -13369,7 +13369,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B211" s="14" t="s">
         <v>361</v>
@@ -13380,7 +13380,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B212" s="14" t="s">
         <v>361</v>
@@ -13391,7 +13391,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B213" s="14"/>
       <c r="C213" s="14" t="s">
@@ -13400,7 +13400,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B214" s="14"/>
       <c r="C214" s="14" t="s">
@@ -13409,7 +13409,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B215" s="14"/>
       <c r="C215" s="14" t="s">
@@ -13418,7 +13418,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B216" s="14"/>
       <c r="C216" s="14" t="s">
@@ -13427,7 +13427,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B217" s="14"/>
       <c r="C217" s="14" t="s">
@@ -13436,7 +13436,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B218" s="14"/>
       <c r="C218" s="14" t="s">
@@ -13445,7 +13445,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B219" s="14"/>
       <c r="C219" s="14" t="s">
@@ -13454,7 +13454,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B220" s="14"/>
       <c r="C220" s="14" t="s">
@@ -13463,7 +13463,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B221" s="14"/>
       <c r="C221" s="14" t="s">
@@ -13472,7 +13472,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B222" s="14"/>
       <c r="C222" s="14" t="s">
@@ -13481,7 +13481,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B223" s="14"/>
       <c r="C223" s="14" t="s">
@@ -13490,7 +13490,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B224" s="14" t="s">
         <v>0</v>
@@ -13501,7 +13501,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B225" s="14" t="s">
         <v>0</v>
@@ -13512,7 +13512,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B226" s="14" t="s">
         <v>0</v>
@@ -13523,7 +13523,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B227" s="14"/>
       <c r="C227" s="14" t="s">
@@ -13532,7 +13532,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B228" s="14" t="s">
         <v>0</v>
@@ -13543,7 +13543,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B229" s="14"/>
       <c r="C229" s="14" t="s">
@@ -13552,7 +13552,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B230" s="14"/>
       <c r="C230" s="14" t="s">
@@ -13561,7 +13561,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B231" s="14"/>
       <c r="C231" s="14" t="s">
@@ -13570,7 +13570,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B232" s="14"/>
       <c r="C232" s="14" t="s">
@@ -13579,10 +13579,10 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C233" s="14" t="s">
         <v>45</v>
@@ -13590,7 +13590,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B234" s="14"/>
       <c r="C234" s="14" t="s">
@@ -13599,7 +13599,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B235" s="14"/>
       <c r="C235" s="14" t="s">
@@ -13608,7 +13608,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B236" s="14" t="s">
         <v>0</v>
@@ -13628,7 +13628,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B238" s="14" t="s">
         <v>0</v>
@@ -13639,7 +13639,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B239" s="14" t="s">
         <v>0</v>
@@ -13650,7 +13650,7 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B240" s="14"/>
       <c r="C240" s="14" t="s">
@@ -13659,7 +13659,7 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B241" s="14"/>
       <c r="C241" s="14" t="s">
@@ -13668,7 +13668,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B242" s="14" t="s">
         <v>0</v>
@@ -13679,7 +13679,7 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B243" s="14"/>
       <c r="C243" s="14" t="s">
@@ -13688,7 +13688,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B244" s="14"/>
       <c r="C244" s="14" t="s">
@@ -13697,7 +13697,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B245" s="14" t="s">
         <v>0</v>
@@ -13708,7 +13708,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B246" s="14" t="s">
         <v>0</v>
@@ -13719,7 +13719,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B247" s="14" t="s">
         <v>0</v>
@@ -13730,7 +13730,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B248" s="14" t="s">
         <v>0</v>
@@ -13741,7 +13741,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B249" s="14"/>
       <c r="C249" s="14" t="s">
@@ -13750,7 +13750,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B250" s="14"/>
       <c r="C250" s="14" t="s">
@@ -13759,7 +13759,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B251" s="14"/>
       <c r="C251" s="14" t="s">
@@ -13768,7 +13768,7 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B252" s="14" t="s">
         <v>0</v>
@@ -13779,7 +13779,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B253" s="14" t="s">
         <v>0</v>
@@ -13790,7 +13790,7 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B254" s="14" t="s">
         <v>0</v>
@@ -13801,7 +13801,7 @@
     </row>
     <row r="255" spans="1:3" ht="29">
       <c r="A255" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B255" s="14" t="s">
         <v>0</v>
@@ -13812,10 +13812,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C256" s="14" t="s">
         <v>45</v>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B257" s="14"/>
       <c r="C257" s="14" t="s">
@@ -13832,7 +13832,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="14" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B258" s="14"/>
       <c r="C258" s="14" t="s">
@@ -13841,10 +13841,10 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="18" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C259" s="14" t="s">
         <v>43</v>
@@ -13852,7 +13852,7 @@
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B260" s="14"/>
       <c r="C260" s="14" t="s">
@@ -13861,7 +13861,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B261" s="14" t="s">
         <v>0</v>
@@ -13872,7 +13872,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B262" s="14" t="s">
         <v>0</v>
@@ -13883,7 +13883,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B263" s="14"/>
       <c r="C263" s="14" t="s">
@@ -13892,7 +13892,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B264" s="14"/>
       <c r="C264" s="14" t="s">
@@ -13901,7 +13901,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B265" s="14" t="s">
         <v>0</v>
@@ -13912,7 +13912,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="14" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B266" s="14"/>
       <c r="C266" s="14" t="s">
@@ -13921,7 +13921,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B267" s="14" t="s">
         <v>0</v>
@@ -13932,7 +13932,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B268" s="14"/>
       <c r="C268" s="14" t="s">
@@ -13941,7 +13941,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B269" s="14"/>
       <c r="C269" s="14" t="s">
@@ -13950,7 +13950,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B270" s="14" t="s">
         <v>0</v>
@@ -13961,7 +13961,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B271" s="14" t="s">
         <v>0</v>
@@ -13972,7 +13972,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B272" s="14"/>
       <c r="C272" s="14" t="s">
@@ -13981,7 +13981,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B273" s="14" t="s">
         <v>0</v>
@@ -13992,7 +13992,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B274" s="14"/>
       <c r="C274" s="14" t="s">
@@ -14001,7 +14001,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B275" s="14"/>
       <c r="C275" s="14" t="s">
@@ -14010,7 +14010,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B276" s="14" t="s">
         <v>0</v>
@@ -14021,7 +14021,7 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B277" s="14" t="s">
         <v>0</v>
@@ -14032,7 +14032,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B278" s="14" t="s">
         <v>0</v>
@@ -14043,7 +14043,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B279" s="14" t="s">
         <v>0</v>
@@ -14054,7 +14054,7 @@
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B280" s="14" t="s">
         <v>0</v>
@@ -14065,7 +14065,7 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="14" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B281" s="14" t="s">
         <v>0</v>
@@ -14076,7 +14076,7 @@
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B282" s="14" t="s">
         <v>0</v>
@@ -14087,7 +14087,7 @@
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B283" s="14" t="s">
         <v>0</v>
@@ -14098,7 +14098,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B284" s="14" t="s">
         <v>0</v>
@@ -14109,7 +14109,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B285" s="14"/>
       <c r="C285" s="14" t="s">
@@ -14118,7 +14118,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B286" s="14"/>
       <c r="C286" s="14" t="s">
@@ -14127,7 +14127,7 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B287" s="14" t="s">
         <v>0</v>
@@ -14138,7 +14138,7 @@
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B288" s="14" t="s">
         <v>0</v>
@@ -14149,7 +14149,7 @@
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B289" s="14" t="s">
         <v>0</v>
@@ -14160,10 +14160,10 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C290" s="14" t="s">
         <v>45</v>
@@ -14171,10 +14171,10 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C291" s="14" t="s">
         <v>45</v>
@@ -14182,7 +14182,7 @@
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B292" s="14" t="s">
         <v>0</v>
@@ -14193,7 +14193,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B293" s="14"/>
       <c r="C293" s="14" t="s">
@@ -14202,7 +14202,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B294" s="14"/>
       <c r="C294" s="14" t="s">
@@ -14211,7 +14211,7 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B295" s="14"/>
       <c r="C295" s="14" t="s">
@@ -14220,10 +14220,10 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C296" s="14" t="s">
         <v>45</v>
@@ -14231,10 +14231,10 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C297" s="14" t="s">
         <v>45</v>
@@ -14242,7 +14242,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B298" s="14" t="s">
         <v>0</v>
@@ -14253,7 +14253,7 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B299" s="14"/>
       <c r="C299" s="14" t="s">
@@ -14262,7 +14262,7 @@
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B300" s="14"/>
       <c r="C300" s="14" t="s">
@@ -14271,7 +14271,7 @@
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B301" s="14"/>
       <c r="C301" s="14" t="s">
@@ -14280,7 +14280,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B302" s="14"/>
       <c r="C302" s="14" t="s">
@@ -14289,7 +14289,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B303" s="14" t="s">
         <v>0</v>
@@ -14300,7 +14300,7 @@
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B304" s="14"/>
       <c r="C304" s="14" t="s">
@@ -14309,7 +14309,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B305" s="14"/>
       <c r="C305" s="14" t="s">
@@ -14318,7 +14318,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B306" s="14"/>
       <c r="C306" s="14" t="s">
@@ -14327,7 +14327,7 @@
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B307" s="14"/>
       <c r="C307" s="14" t="s">
@@ -14336,7 +14336,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B308" s="14"/>
       <c r="C308" s="14" t="s">
@@ -14345,7 +14345,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B309" s="14" t="s">
         <v>0</v>
@@ -14356,7 +14356,7 @@
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B310" s="14" t="s">
         <v>0</v>
@@ -14367,7 +14367,7 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B311" s="14"/>
       <c r="C311" s="14" t="s">
@@ -14376,7 +14376,7 @@
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B312" s="14"/>
       <c r="C312" s="14" t="s">
@@ -14385,7 +14385,7 @@
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B313" s="14"/>
       <c r="C313" s="14" t="s">
@@ -14394,7 +14394,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B314" s="14"/>
       <c r="C314" s="14" t="s">
@@ -14403,7 +14403,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B315" s="14"/>
       <c r="C315" s="14" t="s">
@@ -14412,10 +14412,10 @@
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C316" s="14" t="s">
         <v>45</v>
@@ -14423,10 +14423,10 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C317" s="14" t="s">
         <v>45</v>
@@ -14434,7 +14434,7 @@
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B318" s="14"/>
       <c r="C318" s="14" t="s">
@@ -14443,7 +14443,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B319" s="14"/>
       <c r="C319" s="14" t="s">
@@ -14452,7 +14452,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="14" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B320" s="14" t="s">
         <v>0</v>
@@ -14463,7 +14463,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B321" s="14" t="s">
         <v>0</v>
@@ -14474,7 +14474,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B322" s="14"/>
       <c r="C322" s="14" t="s">
@@ -14483,7 +14483,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B323" s="14"/>
       <c r="C323" s="14" t="s">
@@ -14492,7 +14492,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B324" s="14"/>
       <c r="C324" s="14" t="s">
@@ -14501,7 +14501,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B325" s="14"/>
       <c r="C325" s="14" t="s">
@@ -14519,7 +14519,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B327" s="14" t="s">
         <v>0</v>
@@ -14530,7 +14530,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B328" s="14"/>
       <c r="C328" s="14" t="s">
@@ -14539,7 +14539,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B329" s="14" t="s">
         <v>0</v>
@@ -14550,7 +14550,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B330" s="14"/>
       <c r="C330" s="14" t="s">
@@ -14559,7 +14559,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B331" s="14"/>
       <c r="C331" s="14" t="s">
@@ -14577,7 +14577,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B333" s="14"/>
       <c r="C333" s="14" t="s">
@@ -14586,7 +14586,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B334" s="14"/>
       <c r="C334" s="14" t="s">
@@ -14595,7 +14595,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B335" s="14"/>
       <c r="C335" s="14" t="s">
@@ -14604,7 +14604,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B336" s="14" t="s">
         <v>0</v>
@@ -14615,7 +14615,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B337" s="14"/>
       <c r="C337" s="14" t="s">
@@ -14624,7 +14624,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B338" s="14"/>
       <c r="C338" s="14" t="s">
@@ -14633,7 +14633,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="14" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B339" s="14" t="s">
         <v>0</v>
@@ -14644,7 +14644,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B340" s="14" t="s">
         <v>0</v>
@@ -14655,7 +14655,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B341" s="14" t="s">
         <v>0</v>
@@ -14666,7 +14666,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B342" s="14"/>
       <c r="C342" s="14" t="s">
@@ -14675,7 +14675,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B343" s="14"/>
       <c r="C343" s="14" t="s">
@@ -14684,7 +14684,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B344" s="14" t="s">
         <v>0</v>
@@ -14695,7 +14695,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B345" s="14"/>
       <c r="C345" s="14" t="s">
@@ -14704,7 +14704,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B346" s="14"/>
       <c r="C346" s="14" t="s">
@@ -14713,7 +14713,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B347" s="14" t="s">
         <v>0</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B348" s="14" t="s">
         <v>0</v>
@@ -14735,7 +14735,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B349" s="14"/>
       <c r="C349" s="14" t="s">
@@ -14744,18 +14744,18 @@
     </row>
     <row r="350" spans="1:3" ht="29">
       <c r="A350" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B351" s="14" t="s">
         <v>0</v>
@@ -14766,7 +14766,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B352" s="14" t="s">
         <v>0</v>
@@ -14777,7 +14777,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B353" s="14"/>
       <c r="C353" s="14" t="s">
@@ -14786,7 +14786,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B354" s="14" t="s">
         <v>0</v>
@@ -14797,7 +14797,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B355" s="14" t="s">
         <v>0</v>
@@ -14819,7 +14819,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B357" s="14" t="s">
         <v>0</v>
@@ -14848,7 +14848,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B360" s="14" t="s">
         <v>0</v>
@@ -14859,7 +14859,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B361" s="14" t="s">
         <v>0</v>
@@ -14870,7 +14870,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B362" s="14" t="s">
         <v>0</v>
@@ -14881,7 +14881,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B363" s="14"/>
       <c r="C363" s="14" t="s">
@@ -14890,7 +14890,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B364" s="14" t="s">
         <v>0</v>
@@ -14901,7 +14901,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B365" s="14"/>
       <c r="C365" s="14" t="s">
@@ -14921,7 +14921,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B367" s="14"/>
       <c r="C367" s="14" t="s">
@@ -14939,7 +14939,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B369" s="14" t="s">
         <v>0</v>
@@ -14950,7 +14950,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B370" s="14" t="s">
         <v>0</v>
@@ -14961,10 +14961,10 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C371" s="14" t="s">
         <v>45</v>
@@ -14972,7 +14972,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B372" s="14"/>
       <c r="C372" s="14" t="s">
@@ -14981,7 +14981,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B373" s="14"/>
       <c r="C373" s="14" t="s">
@@ -14990,7 +14990,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B374" s="14" t="s">
         <v>0</v>
@@ -15001,7 +15001,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B375" s="14" t="s">
         <v>0</v>
@@ -15012,7 +15012,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="14" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B376" s="14" t="s">
         <v>0</v>
@@ -15023,7 +15023,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B377" s="14"/>
       <c r="C377" s="14" t="s">
@@ -15032,7 +15032,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B378" s="14"/>
       <c r="C378" s="14" t="s">
@@ -15041,7 +15041,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B379" s="14"/>
       <c r="C379" s="14" t="s">
@@ -15050,7 +15050,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B380" s="14"/>
       <c r="C380" s="14" t="s">
@@ -15059,7 +15059,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B381" s="14"/>
       <c r="C381" s="14" t="s">
@@ -15068,7 +15068,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B382" s="14"/>
       <c r="C382" s="14" t="s">
@@ -15077,7 +15077,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B383" s="14"/>
       <c r="C383" s="14" t="s">
@@ -15086,7 +15086,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B384" s="14"/>
       <c r="C384" s="14" t="s">
@@ -15095,7 +15095,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B385" s="14"/>
       <c r="C385" s="14" t="s">
@@ -15104,7 +15104,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B386" s="14"/>
       <c r="C386" s="14" t="s">
@@ -15113,7 +15113,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B387" s="14"/>
       <c r="C387" s="14" t="s">
@@ -15122,7 +15122,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B388" s="14" t="s">
         <v>0</v>
@@ -15133,7 +15133,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B389" s="14" t="s">
         <v>0</v>
@@ -15144,7 +15144,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B390" s="14"/>
       <c r="C390" s="14" t="s">
@@ -15153,7 +15153,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B391" s="14"/>
       <c r="C391" s="14" t="s">
@@ -15162,7 +15162,7 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B392" s="14"/>
       <c r="C392" s="14" t="s">
@@ -15171,7 +15171,7 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B393" s="14"/>
       <c r="C393" s="14" t="s">
@@ -15180,7 +15180,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B394" s="14"/>
       <c r="C394" s="14" t="s">
@@ -15189,7 +15189,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B395" s="14" t="s">
         <v>0</v>
@@ -15200,7 +15200,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B396" s="14" t="s">
         <v>0</v>
@@ -15211,7 +15211,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B397" s="14" t="s">
         <v>0</v>
@@ -15222,7 +15222,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B398" s="14"/>
       <c r="C398" s="14" t="s">
@@ -15231,7 +15231,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B399" s="14" t="s">
         <v>0</v>
@@ -15242,7 +15242,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B400" s="14"/>
       <c r="C400" s="14" t="s">
@@ -15251,7 +15251,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B401" s="14"/>
       <c r="C401" s="14" t="s">
@@ -15260,7 +15260,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B402" s="14"/>
       <c r="C402" s="14" t="s">
@@ -15269,7 +15269,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B403" s="14" t="s">
         <v>0</v>
@@ -15280,7 +15280,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B404" s="14" t="s">
         <v>0</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B405" s="14"/>
       <c r="C405" s="14" t="s">
@@ -15300,7 +15300,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B406" s="14"/>
       <c r="C406" s="14" t="s">
@@ -15309,7 +15309,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B407" s="14" t="s">
         <v>0</v>
@@ -15320,7 +15320,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B408" s="14" t="s">
         <v>0</v>
@@ -15331,7 +15331,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B409" s="14"/>
       <c r="C409" s="14" t="s">
@@ -15340,7 +15340,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B410" s="14"/>
       <c r="C410" s="14" t="s">
@@ -15349,7 +15349,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B411" s="14" t="s">
         <v>0</v>
@@ -15360,7 +15360,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B412" s="14" t="s">
         <v>0</v>
@@ -15371,7 +15371,7 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B413" s="14"/>
       <c r="C413" s="14" t="s">
@@ -15380,7 +15380,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B414" s="14"/>
       <c r="C414" s="14" t="s">
@@ -15389,7 +15389,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B415" s="14" t="s">
         <v>0</v>
@@ -15400,7 +15400,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B416" s="14"/>
       <c r="C416" s="14" t="s">
@@ -15409,7 +15409,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B417" s="14"/>
       <c r="C417" s="14" t="s">
@@ -15418,7 +15418,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B418" s="14" t="s">
         <v>0</v>
@@ -15429,7 +15429,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B419" s="14"/>
       <c r="C419" s="14" t="s">
@@ -15438,7 +15438,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B420" s="14"/>
       <c r="C420" s="14" t="s">
@@ -15447,7 +15447,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B421" s="14"/>
       <c r="C421" s="14" t="s">
@@ -15456,7 +15456,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B422" s="14" t="s">
         <v>19</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B423" s="14"/>
       <c r="C423" s="14" t="s">
@@ -15476,7 +15476,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B424" s="14"/>
       <c r="C424" s="14" t="s">
@@ -15485,7 +15485,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B425" s="14"/>
       <c r="C425" s="14" t="s">
@@ -15494,7 +15494,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B426" s="14"/>
       <c r="C426" s="14" t="s">
@@ -15503,7 +15503,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B427" s="14"/>
       <c r="C427" s="14" t="s">
@@ -15512,7 +15512,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B428" s="14"/>
       <c r="C428" s="14" t="s">
@@ -15521,7 +15521,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B429" s="14" t="s">
         <v>0</v>
@@ -15532,7 +15532,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B430" s="14"/>
       <c r="C430" s="14" t="s">
@@ -15541,7 +15541,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B431" s="14"/>
       <c r="C431" s="14" t="s">
@@ -15550,7 +15550,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B432" s="14" t="s">
         <v>0</v>
@@ -15561,7 +15561,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B433" s="14" t="s">
         <v>0</v>
@@ -15572,7 +15572,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="14" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B434" s="14"/>
       <c r="C434" s="14" t="s">
@@ -15581,7 +15581,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B435" s="14"/>
       <c r="C435" s="14" t="s">
@@ -15593,7 +15593,7 @@
         <v>195</v>
       </c>
       <c r="B436" s="14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C436" s="14" t="s">
         <v>45</v>
@@ -15601,7 +15601,7 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B437" s="14"/>
       <c r="C437" s="14" t="s">
@@ -15610,7 +15610,7 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B438" s="14"/>
       <c r="C438" s="14" t="s">
@@ -15619,7 +15619,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B439" s="14"/>
       <c r="C439" s="14" t="s">
@@ -15628,7 +15628,7 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B440" s="14"/>
       <c r="C440" s="14" t="s">
@@ -15637,7 +15637,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B441" s="14"/>
       <c r="C441" s="14" t="s">
@@ -15646,7 +15646,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B442" s="14" t="s">
         <v>0</v>
@@ -15657,7 +15657,7 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B443" s="14" t="s">
         <v>0</v>
@@ -15668,7 +15668,7 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B444" s="14"/>
       <c r="C444" s="14" t="s">
@@ -15677,7 +15677,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B445" s="14"/>
       <c r="C445" s="14" t="s">
@@ -15686,7 +15686,7 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B446" s="14"/>
       <c r="C446" s="14" t="s">
@@ -15695,7 +15695,7 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B447" s="14"/>
       <c r="C447" s="14" t="s">
@@ -15704,7 +15704,7 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B448" s="14" t="s">
         <v>0</v>
@@ -15715,7 +15715,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B449" s="14"/>
       <c r="C449" s="14" t="s">
@@ -15724,7 +15724,7 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B450" s="14"/>
       <c r="C450" s="14" t="s">
@@ -15733,7 +15733,7 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B451" s="14" t="s">
         <v>19</v>
@@ -15744,7 +15744,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B452" s="14" t="s">
         <v>0</v>
@@ -15755,10 +15755,10 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B453" s="14" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C453" s="14" t="s">
         <v>45</v>
@@ -15766,7 +15766,7 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B454" s="14" t="s">
         <v>0</v>
@@ -15777,10 +15777,10 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B455" s="14" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C455" s="14" t="s">
         <v>45</v>
@@ -15799,7 +15799,7 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B457" s="14" t="s">
         <v>0</v>
@@ -15810,7 +15810,7 @@
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B458" s="14" t="s">
         <v>0</v>
@@ -15821,7 +15821,7 @@
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B459" s="14"/>
       <c r="C459" s="14" t="s">
@@ -15830,7 +15830,7 @@
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B460" s="14" t="s">
         <v>0</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B461" s="14"/>
       <c r="C461" s="14" t="s">
@@ -15850,7 +15850,7 @@
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B462" s="14"/>
       <c r="C462" s="14" t="s">
@@ -15859,7 +15859,7 @@
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B463" s="14" t="s">
         <v>0</v>
@@ -15870,7 +15870,7 @@
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B464" s="14" t="s">
         <v>0</v>
@@ -15881,7 +15881,7 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B465" s="14"/>
       <c r="C465" s="14" t="s">
@@ -15890,7 +15890,7 @@
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B466" s="14"/>
       <c r="C466" s="14" t="s">
@@ -15899,7 +15899,7 @@
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B467" s="14" t="s">
         <v>0</v>
@@ -15910,7 +15910,7 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B468" s="14" t="s">
         <v>0</v>
@@ -15921,7 +15921,7 @@
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B469" s="14"/>
       <c r="C469" s="14" t="s">
@@ -15930,7 +15930,7 @@
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B470" s="14" t="s">
         <v>0</v>
@@ -15941,7 +15941,7 @@
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B471" s="14" t="s">
         <v>0</v>
@@ -15952,7 +15952,7 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B472" s="14" t="s">
         <v>0</v>
@@ -15963,7 +15963,7 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B473" s="14"/>
       <c r="C473" s="14" t="s">
@@ -15972,7 +15972,7 @@
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B474" s="14"/>
       <c r="C474" s="14" t="s">
@@ -15981,7 +15981,7 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B475" s="14"/>
       <c r="C475" s="14" t="s">
@@ -15990,10 +15990,10 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B476" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C476" s="14" t="s">
         <v>45</v>
@@ -16001,7 +16001,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B477" s="14"/>
       <c r="C477" s="14" t="s">
@@ -16010,7 +16010,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B478" s="14"/>
       <c r="C478" s="14" t="s">
@@ -16019,7 +16019,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B479" s="14"/>
       <c r="C479" s="14" t="s">
@@ -16028,7 +16028,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B480" s="14"/>
       <c r="C480" s="14" t="s">
@@ -16037,7 +16037,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B481" s="14"/>
       <c r="C481" s="14" t="s">
@@ -16046,7 +16046,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B482" s="14"/>
       <c r="C482" s="14" t="s">
@@ -16055,7 +16055,7 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B483" s="14"/>
       <c r="C483" s="14" t="s">
@@ -16064,7 +16064,7 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B484" s="14"/>
       <c r="C484" s="14" t="s">
@@ -16073,7 +16073,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="14" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B485" s="14"/>
       <c r="C485" s="14" t="s">
@@ -16082,7 +16082,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B486" s="14"/>
       <c r="C486" s="14" t="s">
@@ -16091,7 +16091,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B487" s="14" t="s">
         <v>0</v>
@@ -16102,7 +16102,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B488" s="14"/>
       <c r="C488" s="14" t="s">
@@ -16111,7 +16111,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B489" s="14"/>
       <c r="C489" s="14" t="s">
@@ -16120,7 +16120,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B490" s="14"/>
       <c r="C490" s="14" t="s">
@@ -16129,7 +16129,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B491" s="14" t="s">
         <v>0</v>
@@ -16140,7 +16140,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B492" s="14" t="s">
         <v>0</v>
@@ -16151,7 +16151,7 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B493" s="14" t="s">
         <v>0</v>
@@ -16162,7 +16162,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B494" s="14"/>
       <c r="C494" s="14" t="s">
@@ -16171,7 +16171,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="14" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B495" s="14" t="s">
         <v>0</v>
@@ -16182,7 +16182,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B496" s="14" t="s">
         <v>0</v>
@@ -16193,7 +16193,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="14" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B497" s="14" t="s">
         <v>0</v>
@@ -16204,7 +16204,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="14" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B498" s="14" t="s">
         <v>0</v>
@@ -16215,7 +16215,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B499" s="14" t="s">
         <v>0</v>
@@ -16226,7 +16226,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B500" s="14" t="s">
         <v>0</v>
@@ -16237,7 +16237,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B501" s="14"/>
       <c r="C501" s="14" t="s">
@@ -16246,7 +16246,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B502" s="14"/>
       <c r="C502" s="14" t="s">
@@ -16255,7 +16255,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B503" s="14"/>
       <c r="C503" s="14" t="s">
@@ -16264,7 +16264,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B504" s="14"/>
       <c r="C504" s="14" t="s">
@@ -16273,7 +16273,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B505" s="14" t="s">
         <v>361</v>
@@ -16284,7 +16284,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B506" s="14"/>
       <c r="C506" s="14" t="s">
@@ -16293,7 +16293,7 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B507" s="14" t="s">
         <v>0</v>
@@ -16304,7 +16304,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B508" s="14" t="s">
         <v>0</v>
@@ -16315,7 +16315,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B509" s="14"/>
       <c r="C509" s="14" t="s">
@@ -16324,7 +16324,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B510" s="14"/>
       <c r="C510" s="14" t="s">
@@ -16333,7 +16333,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B511" s="14"/>
       <c r="C511" s="14" t="s">
@@ -16342,7 +16342,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B512" s="14"/>
       <c r="C512" s="14" t="s">
@@ -16351,7 +16351,7 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B513" s="14" t="s">
         <v>361</v>
@@ -16362,7 +16362,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B514" s="14"/>
       <c r="C514" s="14" t="s">
@@ -16371,7 +16371,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="14" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B515" s="14"/>
       <c r="C515" s="14" t="s">
@@ -16380,7 +16380,7 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B516" s="14" t="s">
         <v>361</v>
@@ -16391,7 +16391,7 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="14" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B517" s="14"/>
       <c r="C517" s="14" t="s">
@@ -16400,7 +16400,7 @@
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B518" s="14"/>
       <c r="C518" s="14" t="s">
@@ -16409,7 +16409,7 @@
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B519" s="14"/>
       <c r="C519" s="14" t="s">
@@ -16418,7 +16418,7 @@
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B520" s="14"/>
       <c r="C520" s="14" t="s">
@@ -16427,7 +16427,7 @@
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B521" s="14"/>
       <c r="C521" s="14" t="s">
@@ -16436,7 +16436,7 @@
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B522" s="14"/>
       <c r="C522" s="14" t="s">
@@ -16445,7 +16445,7 @@
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B523" s="14"/>
       <c r="C523" s="14" t="s">
@@ -16454,7 +16454,7 @@
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B524" s="14"/>
       <c r="C524" s="14" t="s">
@@ -16463,7 +16463,7 @@
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B525" s="14"/>
       <c r="C525" s="14" t="s">
@@ -16472,7 +16472,7 @@
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B526" s="14"/>
       <c r="C526" s="14" t="s">
@@ -16481,7 +16481,7 @@
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B527" s="14"/>
       <c r="C527" s="14" t="s">
@@ -16490,7 +16490,7 @@
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B528" s="14" t="s">
         <v>0</v>
@@ -16501,7 +16501,7 @@
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="14" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B529" s="14" t="s">
         <v>0</v>
@@ -16512,7 +16512,7 @@
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B530" s="14"/>
       <c r="C530" s="14" t="s">
@@ -16521,7 +16521,7 @@
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B531" s="14"/>
       <c r="C531" s="14" t="s">
@@ -16530,7 +16530,7 @@
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B532" s="14"/>
       <c r="C532" s="14" t="s">
@@ -16539,7 +16539,7 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B533" s="14"/>
       <c r="C533" s="14" t="s">
@@ -16548,7 +16548,7 @@
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B534" s="14"/>
       <c r="C534" s="14" t="s">
@@ -16557,7 +16557,7 @@
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B535" s="14" t="s">
         <v>0</v>
@@ -16568,7 +16568,7 @@
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B536" s="14" t="s">
         <v>0</v>
@@ -16579,10 +16579,10 @@
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B537" s="14" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C537" s="14" t="s">
         <v>45</v>
@@ -16590,7 +16590,7 @@
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B538" s="14"/>
       <c r="C538" s="14" t="s">
@@ -16599,7 +16599,7 @@
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B539" s="14" t="s">
         <v>0</v>
@@ -16610,7 +16610,7 @@
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B540" s="14" t="s">
         <v>0</v>
@@ -16621,7 +16621,7 @@
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B541" s="14"/>
       <c r="C541" s="14" t="s">
@@ -16630,7 +16630,7 @@
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B542" s="14"/>
       <c r="C542" s="14" t="s">
@@ -16639,7 +16639,7 @@
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B543" s="14" t="s">
         <v>0</v>
@@ -16650,7 +16650,7 @@
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B544" s="14" t="s">
         <v>0</v>
@@ -16661,7 +16661,7 @@
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B545" s="14"/>
       <c r="C545" s="14" t="s">
@@ -16670,7 +16670,7 @@
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="14" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B546" s="14"/>
       <c r="C546" s="14" t="s">
@@ -16679,7 +16679,7 @@
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B547" s="14"/>
       <c r="C547" s="14" t="s">
@@ -16688,7 +16688,7 @@
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B548" s="14"/>
       <c r="C548" s="14" t="s">
@@ -16697,7 +16697,7 @@
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B549" s="14"/>
       <c r="C549" s="14" t="s">
@@ -16706,7 +16706,7 @@
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B550" s="14"/>
       <c r="C550" s="14" t="s">
@@ -16715,7 +16715,7 @@
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B551" s="14"/>
       <c r="C551" s="14" t="s">
@@ -16724,7 +16724,7 @@
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B552" s="14"/>
       <c r="C552" s="14" t="s">
@@ -16733,7 +16733,7 @@
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B553" s="14"/>
       <c r="C553" s="14" t="s">
@@ -16742,7 +16742,7 @@
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="14" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B554" s="14"/>
       <c r="C554" s="14" t="s">
@@ -16751,7 +16751,7 @@
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="14" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B555" s="14" t="s">
         <v>0</v>
@@ -16762,7 +16762,7 @@
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B556" s="14"/>
       <c r="C556" s="14" t="s">
@@ -16771,7 +16771,7 @@
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B557" s="14"/>
       <c r="C557" s="14" t="s">
@@ -16780,7 +16780,7 @@
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="14" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B558" s="14" t="s">
         <v>0</v>
@@ -16791,7 +16791,7 @@
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="14" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B559" s="14"/>
       <c r="C559" s="14" t="s">
@@ -16800,7 +16800,7 @@
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B560" s="14"/>
       <c r="C560" s="14" t="s">
@@ -16809,7 +16809,7 @@
     </row>
     <row r="561" spans="1:3">
       <c r="A561" s="14" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B561" s="14"/>
       <c r="C561" s="14" t="s">
@@ -16818,7 +16818,7 @@
     </row>
     <row r="562" spans="1:3">
       <c r="A562" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B562" s="14"/>
       <c r="C562" s="14" t="s">
@@ -16827,7 +16827,7 @@
     </row>
     <row r="563" spans="1:3">
       <c r="A563" s="14" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B563" s="14"/>
       <c r="C563" s="14" t="s">
@@ -16836,7 +16836,7 @@
     </row>
     <row r="564" spans="1:3">
       <c r="A564" s="14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B564" s="14"/>
       <c r="C564" s="14" t="s">
@@ -16845,7 +16845,7 @@
     </row>
     <row r="565" spans="1:3">
       <c r="A565" s="14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B565" s="14"/>
       <c r="C565" s="14" t="s">
@@ -16854,7 +16854,7 @@
     </row>
     <row r="566" spans="1:3">
       <c r="A566" s="14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B566" s="14"/>
       <c r="C566" s="14" t="s">
@@ -16863,7 +16863,7 @@
     </row>
     <row r="567" spans="1:3">
       <c r="A567" s="14" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B567" s="14"/>
       <c r="C567" s="14" t="s">
@@ -16872,7 +16872,7 @@
     </row>
     <row r="568" spans="1:3">
       <c r="A568" s="14" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B568" s="14"/>
       <c r="C568" s="14" t="s">
@@ -16881,7 +16881,7 @@
     </row>
     <row r="569" spans="1:3">
       <c r="A569" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B569" s="14"/>
       <c r="C569" s="14" t="s">
@@ -16890,7 +16890,7 @@
     </row>
     <row r="570" spans="1:3">
       <c r="A570" s="14" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B570" s="14"/>
       <c r="C570" s="14" t="s">
@@ -16899,7 +16899,7 @@
     </row>
     <row r="571" spans="1:3">
       <c r="A571" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B571" s="14"/>
       <c r="C571" s="14" t="s">
@@ -16908,7 +16908,7 @@
     </row>
     <row r="572" spans="1:3">
       <c r="A572" s="14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B572" s="14"/>
       <c r="C572" s="14" t="s">
@@ -16917,7 +16917,7 @@
     </row>
     <row r="573" spans="1:3">
       <c r="A573" s="14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B573" s="14"/>
       <c r="C573" s="14" t="s">
@@ -16926,7 +16926,7 @@
     </row>
     <row r="574" spans="1:3">
       <c r="A574" s="14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B574" s="14"/>
       <c r="C574" s="14" t="s">
@@ -16935,7 +16935,7 @@
     </row>
     <row r="575" spans="1:3">
       <c r="A575" s="14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B575" s="14"/>
       <c r="C575" s="14" t="s">
@@ -16944,7 +16944,7 @@
     </row>
     <row r="576" spans="1:3">
       <c r="A576" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B576" s="14"/>
       <c r="C576" s="14" t="s">
@@ -16953,7 +16953,7 @@
     </row>
     <row r="577" spans="1:3">
       <c r="A577" s="14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B577" s="14"/>
       <c r="C577" s="14" t="s">
@@ -16962,7 +16962,7 @@
     </row>
     <row r="578" spans="1:3">
       <c r="A578" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B578" s="14"/>
       <c r="C578" s="14" t="s">
@@ -16971,7 +16971,7 @@
     </row>
     <row r="579" spans="1:3">
       <c r="A579" s="14" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B579" s="14"/>
       <c r="C579" s="14" t="s">
@@ -16980,7 +16980,7 @@
     </row>
     <row r="580" spans="1:3">
       <c r="A580" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B580" s="14"/>
       <c r="C580" s="14" t="s">
@@ -16989,7 +16989,7 @@
     </row>
     <row r="581" spans="1:3">
       <c r="A581" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B581" s="14"/>
       <c r="C581" s="14" t="s">
@@ -16998,7 +16998,7 @@
     </row>
     <row r="582" spans="1:3">
       <c r="A582" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B582" s="14"/>
       <c r="C582" s="14" t="s">
@@ -17007,7 +17007,7 @@
     </row>
     <row r="583" spans="1:3">
       <c r="A583" s="14" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B583" s="14" t="s">
         <v>0</v>
@@ -17018,7 +17018,7 @@
     </row>
     <row r="584" spans="1:3">
       <c r="A584" s="14" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B584" s="14" t="s">
         <v>0</v>
@@ -17029,7 +17029,7 @@
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="14" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B585" s="14"/>
       <c r="C585" s="14" t="s">
@@ -17038,7 +17038,7 @@
     </row>
     <row r="586" spans="1:3">
       <c r="A586" s="14" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B586" s="14"/>
       <c r="C586" s="14" t="s">
@@ -17047,7 +17047,7 @@
     </row>
     <row r="587" spans="1:3">
       <c r="A587" s="14" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B587" s="14"/>
       <c r="C587" s="14" t="s">
@@ -17056,7 +17056,7 @@
     </row>
     <row r="588" spans="1:3">
       <c r="A588" s="14" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B588" s="14"/>
       <c r="C588" s="14" t="s">
@@ -17065,7 +17065,7 @@
     </row>
     <row r="589" spans="1:3">
       <c r="A589" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B589" s="14"/>
       <c r="C589" s="14" t="s">
@@ -17074,7 +17074,7 @@
     </row>
     <row r="590" spans="1:3">
       <c r="A590" s="14" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B590" s="14"/>
       <c r="C590" s="14" t="s">
@@ -17083,7 +17083,7 @@
     </row>
     <row r="591" spans="1:3">
       <c r="A591" s="14" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B591" s="14"/>
       <c r="C591" s="14" t="s">
@@ -17092,7 +17092,7 @@
     </row>
     <row r="592" spans="1:3">
       <c r="A592" s="14" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B592" s="14"/>
       <c r="C592" s="14" t="s">
@@ -17101,7 +17101,7 @@
     </row>
     <row r="593" spans="1:3">
       <c r="A593" s="14" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B593" s="14"/>
       <c r="C593" s="14" t="s">
@@ -17110,7 +17110,7 @@
     </row>
     <row r="594" spans="1:3">
       <c r="A594" s="14" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B594" s="14"/>
       <c r="C594" s="14" t="s">
@@ -17119,7 +17119,7 @@
     </row>
     <row r="595" spans="1:3">
       <c r="A595" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B595" s="14"/>
       <c r="C595" s="14" t="s">
@@ -17128,7 +17128,7 @@
     </row>
     <row r="596" spans="1:3">
       <c r="A596" s="14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B596" s="14"/>
       <c r="C596" s="14" t="s">
@@ -17137,7 +17137,7 @@
     </row>
     <row r="597" spans="1:3">
       <c r="A597" s="14" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B597" s="14"/>
       <c r="C597" s="14" t="s">
@@ -17146,7 +17146,7 @@
     </row>
     <row r="598" spans="1:3">
       <c r="A598" s="14" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B598" s="14"/>
       <c r="C598" s="14" t="s">
@@ -17155,7 +17155,7 @@
     </row>
     <row r="599" spans="1:3">
       <c r="A599" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B599" s="14"/>
       <c r="C599" s="14" t="s">
@@ -17164,7 +17164,7 @@
     </row>
     <row r="600" spans="1:3">
       <c r="A600" s="14" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B600" s="14"/>
       <c r="C600" s="14" t="s">
@@ -17173,7 +17173,7 @@
     </row>
     <row r="601" spans="1:3">
       <c r="A601" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B601" s="14"/>
       <c r="C601" s="14" t="s">
@@ -17182,7 +17182,7 @@
     </row>
     <row r="602" spans="1:3">
       <c r="A602" s="14" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B602" s="14"/>
       <c r="C602" s="14" t="s">
@@ -17191,7 +17191,7 @@
     </row>
     <row r="603" spans="1:3">
       <c r="A603" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B603" s="14" t="s">
         <v>0</v>
@@ -17202,7 +17202,7 @@
     </row>
     <row r="604" spans="1:3">
       <c r="A604" s="14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B604" s="14"/>
       <c r="C604" s="14" t="s">
@@ -17222,7 +17222,7 @@
     </row>
     <row r="606" spans="1:3">
       <c r="A606" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B606" s="14" t="s">
         <v>0</v>
@@ -17233,7 +17233,7 @@
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B607" s="14"/>
       <c r="C607" s="14" t="s">
@@ -17251,7 +17251,7 @@
     </row>
     <row r="609" spans="1:3">
       <c r="A609" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B609" s="14"/>
       <c r="C609" s="14" t="s">
@@ -17260,7 +17260,7 @@
     </row>
     <row r="610" spans="1:3">
       <c r="A610" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B610" s="14"/>
       <c r="C610" s="14" t="s">
@@ -17269,7 +17269,7 @@
     </row>
     <row r="611" spans="1:3">
       <c r="A611" s="14" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B611" s="14"/>
       <c r="C611" s="14" t="s">
@@ -17278,7 +17278,7 @@
     </row>
     <row r="612" spans="1:3">
       <c r="A612" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B612" s="14"/>
       <c r="C612" s="14" t="s">
@@ -17287,7 +17287,7 @@
     </row>
     <row r="613" spans="1:3">
       <c r="A613" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B613" s="14"/>
       <c r="C613" s="14" t="s">
@@ -17296,7 +17296,7 @@
     </row>
     <row r="614" spans="1:3">
       <c r="A614" s="14" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B614" s="14"/>
       <c r="C614" s="14" t="s">
@@ -17305,7 +17305,7 @@
     </row>
     <row r="615" spans="1:3">
       <c r="A615" s="14" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B615" s="14"/>
       <c r="C615" s="14" t="s">
@@ -17314,7 +17314,7 @@
     </row>
     <row r="616" spans="1:3">
       <c r="A616" s="14" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B616" s="14" t="s">
         <v>0</v>
@@ -17325,7 +17325,7 @@
     </row>
     <row r="617" spans="1:3">
       <c r="A617" s="14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B617" s="14" t="s">
         <v>0</v>
@@ -17336,7 +17336,7 @@
     </row>
     <row r="618" spans="1:3">
       <c r="A618" s="14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B618" s="14" t="s">
         <v>0</v>
@@ -17347,7 +17347,7 @@
     </row>
     <row r="619" spans="1:3">
       <c r="A619" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B619" s="14"/>
       <c r="C619" s="14" t="s">
@@ -17356,7 +17356,7 @@
     </row>
     <row r="620" spans="1:3">
       <c r="A620" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B620" s="14" t="s">
         <v>0</v>
@@ -17367,7 +17367,7 @@
     </row>
     <row r="621" spans="1:3">
       <c r="A621" s="14" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B621" s="14"/>
       <c r="C621" s="14" t="s">
@@ -17376,7 +17376,7 @@
     </row>
     <row r="622" spans="1:3">
       <c r="A622" s="14" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B622" s="14" t="s">
         <v>0</v>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="623" spans="1:3">
       <c r="A623" s="14" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B623" s="14"/>
       <c r="C623" s="14" t="s">
@@ -17396,7 +17396,7 @@
     </row>
     <row r="624" spans="1:3">
       <c r="A624" s="14" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B624" s="14"/>
       <c r="C624" s="14" t="s">
@@ -17405,7 +17405,7 @@
     </row>
     <row r="625" spans="1:3">
       <c r="A625" s="14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B625" s="14"/>
       <c r="C625" s="14" t="s">
@@ -17414,7 +17414,7 @@
     </row>
     <row r="626" spans="1:3">
       <c r="A626" s="14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B626" s="14" t="s">
         <v>0</v>
@@ -17425,7 +17425,7 @@
     </row>
     <row r="627" spans="1:3">
       <c r="A627" s="14" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B627" s="14"/>
       <c r="C627" s="14" t="s">
@@ -17434,7 +17434,7 @@
     </row>
     <row r="628" spans="1:3">
       <c r="A628" s="14" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B628" s="14" t="s">
         <v>0</v>
@@ -17445,7 +17445,7 @@
     </row>
     <row r="629" spans="1:3">
       <c r="A629" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B629" s="14" t="s">
         <v>0</v>
@@ -17456,7 +17456,7 @@
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B630" s="14"/>
       <c r="C630" s="14" t="s">
@@ -17465,7 +17465,7 @@
     </row>
     <row r="631" spans="1:3">
       <c r="A631" s="14" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B631" s="14"/>
       <c r="C631" s="14" t="s">
@@ -17474,7 +17474,7 @@
     </row>
     <row r="632" spans="1:3">
       <c r="A632" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B632" s="14"/>
       <c r="C632" s="14" t="s">
@@ -17483,7 +17483,7 @@
     </row>
     <row r="633" spans="1:3">
       <c r="A633" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B633" s="14" t="s">
         <v>0</v>
@@ -17503,7 +17503,7 @@
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B635" s="14"/>
       <c r="C635" s="14" t="s">
@@ -17512,7 +17512,7 @@
     </row>
     <row r="636" spans="1:3">
       <c r="A636" s="14" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B636" s="14"/>
       <c r="C636" s="14" t="s">
@@ -17521,7 +17521,7 @@
     </row>
     <row r="637" spans="1:3">
       <c r="A637" s="14" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B637" s="14"/>
       <c r="C637" s="14" t="s">
@@ -17530,7 +17530,7 @@
     </row>
     <row r="638" spans="1:3">
       <c r="A638" s="14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B638" s="14"/>
       <c r="C638" s="14" t="s">
@@ -17539,7 +17539,7 @@
     </row>
     <row r="639" spans="1:3">
       <c r="A639" s="14" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B639" s="14"/>
       <c r="C639" s="14" t="s">
@@ -17548,7 +17548,7 @@
     </row>
     <row r="640" spans="1:3">
       <c r="A640" s="14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B640" s="14"/>
       <c r="C640" s="14" t="s">
@@ -17557,7 +17557,7 @@
     </row>
     <row r="641" spans="1:3">
       <c r="A641" s="14" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B641" s="14"/>
       <c r="C641" s="14" t="s">
@@ -17566,7 +17566,7 @@
     </row>
     <row r="642" spans="1:3">
       <c r="A642" s="14" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B642" s="14"/>
       <c r="C642" s="14" t="s">
@@ -17575,18 +17575,18 @@
     </row>
     <row r="643" spans="1:3" ht="29">
       <c r="A643" s="14" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B643" s="14" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C643" s="14" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="644" spans="1:3">
       <c r="A644" s="14" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B644" s="14" t="s">
         <v>0</v>
@@ -17597,7 +17597,7 @@
     </row>
     <row r="645" spans="1:3">
       <c r="A645" s="14" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B645" s="14"/>
       <c r="C645" s="14" t="s">
@@ -17606,7 +17606,7 @@
     </row>
     <row r="646" spans="1:3">
       <c r="A646" s="14" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B646" s="14"/>
       <c r="C646" s="14" t="s">
@@ -17615,7 +17615,7 @@
     </row>
     <row r="647" spans="1:3">
       <c r="A647" s="14" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B647" s="14"/>
       <c r="C647" s="14" t="s">
@@ -17624,7 +17624,7 @@
     </row>
     <row r="648" spans="1:3">
       <c r="A648" s="14" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B648" s="14"/>
       <c r="C648" s="14" t="s">
@@ -17633,7 +17633,7 @@
     </row>
     <row r="649" spans="1:3">
       <c r="A649" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B649" s="14"/>
       <c r="C649" s="14" t="s">
@@ -17642,7 +17642,7 @@
     </row>
     <row r="650" spans="1:3">
       <c r="A650" s="14" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B650" s="14"/>
       <c r="C650" s="14" t="s">
@@ -17651,7 +17651,7 @@
     </row>
     <row r="651" spans="1:3">
       <c r="A651" s="14" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B651" s="14"/>
       <c r="C651" s="14" t="s">
@@ -17660,7 +17660,7 @@
     </row>
     <row r="652" spans="1:3">
       <c r="A652" s="14" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B652" s="14"/>
       <c r="C652" s="14" t="s">
@@ -17669,7 +17669,7 @@
     </row>
     <row r="653" spans="1:3">
       <c r="A653" s="14" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B653" s="14"/>
       <c r="C653" s="14" t="s">
@@ -17678,7 +17678,7 @@
     </row>
     <row r="654" spans="1:3">
       <c r="A654" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B654" s="14"/>
       <c r="C654" s="14" t="s">
@@ -17687,7 +17687,7 @@
     </row>
     <row r="655" spans="1:3">
       <c r="A655" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B655" s="14"/>
       <c r="C655" s="14" t="s">
@@ -17696,7 +17696,7 @@
     </row>
     <row r="656" spans="1:3">
       <c r="A656" s="14" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B656" s="14"/>
       <c r="C656" s="14" t="s">
@@ -17705,7 +17705,7 @@
     </row>
     <row r="657" spans="1:3">
       <c r="A657" s="14" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B657" s="14"/>
       <c r="C657" s="14" t="s">
@@ -17714,7 +17714,7 @@
     </row>
     <row r="658" spans="1:3">
       <c r="A658" s="14" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B658" s="14"/>
       <c r="C658" s="14" t="s">
@@ -17723,7 +17723,7 @@
     </row>
     <row r="659" spans="1:3">
       <c r="A659" s="14" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B659" s="14"/>
       <c r="C659" s="14" t="s">
@@ -17732,7 +17732,7 @@
     </row>
     <row r="660" spans="1:3">
       <c r="A660" s="14" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B660" s="14"/>
       <c r="C660" s="14" t="s">
@@ -17741,7 +17741,7 @@
     </row>
     <row r="661" spans="1:3">
       <c r="A661" s="14" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B661" s="14"/>
       <c r="C661" s="14" t="s">
@@ -17750,7 +17750,7 @@
     </row>
     <row r="662" spans="1:3">
       <c r="A662" s="14" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B662" s="14" t="s">
         <v>0</v>
@@ -17761,7 +17761,7 @@
     </row>
     <row r="663" spans="1:3">
       <c r="A663" s="14" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B663" s="14"/>
       <c r="C663" s="14" t="s">
@@ -17770,7 +17770,7 @@
     </row>
     <row r="664" spans="1:3">
       <c r="A664" s="14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B664" s="14"/>
       <c r="C664" s="14" t="s">
@@ -17779,7 +17779,7 @@
     </row>
     <row r="665" spans="1:3">
       <c r="A665" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B665" s="14"/>
       <c r="C665" s="14" t="s">
@@ -17788,7 +17788,7 @@
     </row>
     <row r="666" spans="1:3">
       <c r="A666" s="14" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B666" s="14"/>
       <c r="C666" s="14" t="s">
@@ -17797,7 +17797,7 @@
     </row>
     <row r="667" spans="1:3">
       <c r="A667" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B667" s="14"/>
       <c r="C667" s="14" t="s">
@@ -17806,7 +17806,7 @@
     </row>
     <row r="668" spans="1:3">
       <c r="A668" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B668" s="14"/>
       <c r="C668" s="14" t="s">
@@ -17815,7 +17815,7 @@
     </row>
     <row r="669" spans="1:3">
       <c r="A669" s="14" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B669" s="14"/>
       <c r="C669" s="14" t="s">
@@ -17824,7 +17824,7 @@
     </row>
     <row r="670" spans="1:3">
       <c r="A670" s="14" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B670" s="14" t="s">
         <v>0</v>
@@ -17835,7 +17835,7 @@
     </row>
     <row r="671" spans="1:3">
       <c r="A671" s="14" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B671" s="14" t="s">
         <v>0</v>
@@ -17846,7 +17846,7 @@
     </row>
     <row r="672" spans="1:3">
       <c r="A672" s="14" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B672" s="14"/>
       <c r="C672" s="14" t="s">
@@ -17855,7 +17855,7 @@
     </row>
     <row r="673" spans="1:3">
       <c r="A673" s="14" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B673" s="14"/>
       <c r="C673" s="14" t="s">
@@ -17864,7 +17864,7 @@
     </row>
     <row r="674" spans="1:3">
       <c r="A674" s="14" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B674" s="14"/>
       <c r="C674" s="14" t="s">
@@ -17873,7 +17873,7 @@
     </row>
     <row r="675" spans="1:3">
       <c r="A675" s="14" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B675" s="14"/>
       <c r="C675" s="14" t="s">
@@ -17882,7 +17882,7 @@
     </row>
     <row r="676" spans="1:3">
       <c r="A676" s="14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B676" s="14"/>
       <c r="C676" s="14" t="s">
@@ -17891,7 +17891,7 @@
     </row>
     <row r="677" spans="1:3">
       <c r="A677" s="14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B677" s="14" t="s">
         <v>0</v>
@@ -17902,7 +17902,7 @@
     </row>
     <row r="678" spans="1:3">
       <c r="A678" s="14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B678" s="14" t="s">
         <v>361</v>
@@ -17913,7 +17913,7 @@
     </row>
     <row r="679" spans="1:3">
       <c r="A679" s="14" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B679" s="14"/>
       <c r="C679" s="14" t="s">
@@ -17922,7 +17922,7 @@
     </row>
     <row r="680" spans="1:3">
       <c r="A680" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B680" s="14" t="s">
         <v>0</v>
@@ -17933,7 +17933,7 @@
     </row>
     <row r="681" spans="1:3">
       <c r="A681" s="14" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B681" s="14" t="s">
         <v>0</v>
@@ -17944,7 +17944,7 @@
     </row>
     <row r="682" spans="1:3">
       <c r="A682" s="14" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B682" s="14" t="s">
         <v>0</v>
@@ -17955,7 +17955,7 @@
     </row>
     <row r="683" spans="1:3">
       <c r="A683" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B683" s="14" t="s">
         <v>0</v>
@@ -17966,7 +17966,7 @@
     </row>
     <row r="684" spans="1:3">
       <c r="A684" s="14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B684" s="14" t="s">
         <v>0</v>
@@ -17977,7 +17977,7 @@
     </row>
     <row r="685" spans="1:3">
       <c r="A685" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B685" s="14" t="s">
         <v>0</v>
@@ -17988,7 +17988,7 @@
     </row>
     <row r="686" spans="1:3">
       <c r="A686" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B686" s="14" t="s">
         <v>0</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="687" spans="1:3">
       <c r="A687" s="14" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B687" s="14"/>
       <c r="C687" s="14" t="s">
@@ -18008,7 +18008,7 @@
     </row>
     <row r="688" spans="1:3">
       <c r="A688" s="14" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B688" s="14" t="s">
         <v>0</v>
@@ -18019,7 +18019,7 @@
     </row>
     <row r="689" spans="1:3">
       <c r="A689" s="14" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B689" s="14"/>
       <c r="C689" s="14" t="s">
@@ -18028,7 +18028,7 @@
     </row>
     <row r="690" spans="1:3">
       <c r="A690" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B690" s="14"/>
       <c r="C690" s="14" t="s">
@@ -18037,7 +18037,7 @@
     </row>
     <row r="691" spans="1:3">
       <c r="A691" s="14" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B691" s="14" t="s">
         <v>0</v>
@@ -18048,7 +18048,7 @@
     </row>
     <row r="692" spans="1:3">
       <c r="A692" s="14" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B692" s="14"/>
       <c r="C692" s="14" t="s">
@@ -18057,7 +18057,7 @@
     </row>
     <row r="693" spans="1:3">
       <c r="A693" s="14" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B693" s="14" t="s">
         <v>0</v>
@@ -18068,7 +18068,7 @@
     </row>
     <row r="694" spans="1:3">
       <c r="A694" s="14" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B694" s="14" t="s">
         <v>0</v>
@@ -18079,7 +18079,7 @@
     </row>
     <row r="695" spans="1:3">
       <c r="A695" s="14" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B695" s="14" t="s">
         <v>0</v>
@@ -18090,7 +18090,7 @@
     </row>
     <row r="696" spans="1:3">
       <c r="A696" s="14" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B696" s="14"/>
       <c r="C696" s="14" t="s">
@@ -18099,7 +18099,7 @@
     </row>
     <row r="697" spans="1:3">
       <c r="A697" s="14" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B697" s="14"/>
       <c r="C697" s="14" t="s">
@@ -18108,7 +18108,7 @@
     </row>
     <row r="698" spans="1:3" ht="29">
       <c r="A698" s="14" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B698" s="14"/>
       <c r="C698" s="14" t="s">
@@ -18117,7 +18117,7 @@
     </row>
     <row r="699" spans="1:3">
       <c r="A699" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B699" s="14"/>
       <c r="C699" s="14" t="s">
@@ -18126,7 +18126,7 @@
     </row>
     <row r="700" spans="1:3">
       <c r="A700" s="14" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B700" s="14" t="s">
         <v>0</v>
@@ -18137,7 +18137,7 @@
     </row>
     <row r="701" spans="1:3">
       <c r="A701" s="14" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B701" s="14" t="s">
         <v>0</v>
@@ -18148,7 +18148,7 @@
     </row>
     <row r="702" spans="1:3">
       <c r="A702" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B702" s="14"/>
       <c r="C702" s="14" t="s">
@@ -18157,7 +18157,7 @@
     </row>
     <row r="703" spans="1:3">
       <c r="A703" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B703" s="14"/>
       <c r="C703" s="14" t="s">
@@ -18177,7 +18177,7 @@
     </row>
     <row r="705" spans="1:3">
       <c r="A705" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B705" s="14"/>
       <c r="C705" s="14" t="s">
@@ -18186,7 +18186,7 @@
     </row>
     <row r="706" spans="1:3">
       <c r="A706" s="14" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B706" s="14"/>
       <c r="C706" s="14" t="s">
@@ -18195,7 +18195,7 @@
     </row>
     <row r="707" spans="1:3">
       <c r="A707" s="14" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B707" s="14"/>
       <c r="C707" s="14" t="s">
@@ -18204,7 +18204,7 @@
     </row>
     <row r="708" spans="1:3">
       <c r="A708" s="14" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B708" s="14"/>
       <c r="C708" s="14" t="s">
@@ -18213,7 +18213,7 @@
     </row>
     <row r="709" spans="1:3">
       <c r="A709" s="14" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B709" s="14"/>
       <c r="C709" s="14" t="s">
@@ -18222,7 +18222,7 @@
     </row>
     <row r="710" spans="1:3">
       <c r="A710" s="14" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B710" s="14"/>
       <c r="C710" s="14" t="s">
@@ -18231,7 +18231,7 @@
     </row>
     <row r="711" spans="1:3">
       <c r="A711" s="14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B711" s="14"/>
       <c r="C711" s="14" t="s">
@@ -18240,7 +18240,7 @@
     </row>
     <row r="712" spans="1:3">
       <c r="A712" s="14" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B712" s="14" t="s">
         <v>0</v>
@@ -18251,7 +18251,7 @@
     </row>
     <row r="713" spans="1:3">
       <c r="A713" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B713" s="14"/>
       <c r="C713" s="14" t="s">
@@ -18260,7 +18260,7 @@
     </row>
     <row r="714" spans="1:3">
       <c r="A714" s="14" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B714" s="14"/>
       <c r="C714" s="14" t="s">
@@ -18269,7 +18269,7 @@
     </row>
     <row r="715" spans="1:3">
       <c r="A715" s="14" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B715" s="14"/>
       <c r="C715" s="14" t="s">
@@ -18278,7 +18278,7 @@
     </row>
     <row r="716" spans="1:3">
       <c r="A716" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B716" s="14" t="s">
         <v>0</v>
@@ -18289,10 +18289,10 @@
     </row>
     <row r="717" spans="1:3">
       <c r="A717" s="14" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B717" s="14" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C717" s="14" t="s">
         <v>45</v>
@@ -18300,10 +18300,10 @@
     </row>
     <row r="718" spans="1:3">
       <c r="A718" s="14" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B718" s="14" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C718" s="14" t="s">
         <v>45</v>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="719" spans="1:3">
       <c r="A719" s="14" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B719" s="14" t="s">
         <v>0</v>
@@ -18322,10 +18322,10 @@
     </row>
     <row r="720" spans="1:3">
       <c r="A720" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B720" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C720" s="14" t="s">
         <v>45</v>
@@ -18333,7 +18333,7 @@
     </row>
     <row r="721" spans="1:3">
       <c r="A721" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B721" s="14" t="s">
         <v>0</v>
@@ -18344,7 +18344,7 @@
     </row>
     <row r="722" spans="1:3">
       <c r="A722" s="14" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B722" s="14" t="s">
         <v>0</v>
@@ -18355,7 +18355,7 @@
     </row>
     <row r="723" spans="1:3">
       <c r="A723" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B723" s="14"/>
       <c r="C723" s="14" t="s">
@@ -18364,7 +18364,7 @@
     </row>
     <row r="724" spans="1:3">
       <c r="A724" s="14" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B724" s="14" t="s">
         <v>0</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="725" spans="1:3">
       <c r="A725" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B725" s="14" t="s">
         <v>0</v>
@@ -18386,7 +18386,7 @@
     </row>
     <row r="726" spans="1:3">
       <c r="A726" s="14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B726" s="14" t="s">
         <v>0</v>
@@ -18397,7 +18397,7 @@
     </row>
     <row r="727" spans="1:3">
       <c r="A727" s="14" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B727" s="14" t="s">
         <v>0</v>
@@ -18408,7 +18408,7 @@
     </row>
     <row r="728" spans="1:3">
       <c r="A728" s="14" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B728" s="14" t="s">
         <v>0</v>
@@ -18419,7 +18419,7 @@
     </row>
     <row r="729" spans="1:3">
       <c r="A729" s="14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B729" s="14"/>
       <c r="C729" s="14" t="s">
@@ -18428,7 +18428,7 @@
     </row>
     <row r="730" spans="1:3">
       <c r="A730" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B730" s="14"/>
       <c r="C730" s="14" t="s">
@@ -18437,7 +18437,7 @@
     </row>
     <row r="731" spans="1:3">
       <c r="A731" s="14" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B731" s="14"/>
       <c r="C731" s="14" t="s">
@@ -18446,7 +18446,7 @@
     </row>
     <row r="732" spans="1:3">
       <c r="A732" s="14" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B732" s="14"/>
       <c r="C732" s="14" t="s">
@@ -18455,7 +18455,7 @@
     </row>
     <row r="733" spans="1:3">
       <c r="A733" s="14" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B733" s="14"/>
       <c r="C733" s="14" t="s">
@@ -18464,7 +18464,7 @@
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B734" s="14"/>
       <c r="C734" s="14" t="s">
@@ -18473,7 +18473,7 @@
     </row>
     <row r="735" spans="1:3">
       <c r="A735" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B735" s="14" t="s">
         <v>0</v>
@@ -18484,7 +18484,7 @@
     </row>
     <row r="736" spans="1:3">
       <c r="A736" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B736" s="14" t="s">
         <v>0</v>
@@ -18495,7 +18495,7 @@
     </row>
     <row r="737" spans="1:3">
       <c r="A737" s="14" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B737" s="14" t="s">
         <v>0</v>
@@ -18506,7 +18506,7 @@
     </row>
     <row r="738" spans="1:3">
       <c r="A738" s="14" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B738" s="14" t="s">
         <v>0</v>
@@ -18517,7 +18517,7 @@
     </row>
     <row r="739" spans="1:3">
       <c r="A739" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B739" s="14" t="s">
         <v>0</v>
@@ -18528,7 +18528,7 @@
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B740" s="14" t="s">
         <v>0</v>
@@ -18539,7 +18539,7 @@
     </row>
     <row r="741" spans="1:3">
       <c r="A741" s="14" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B741" s="14" t="s">
         <v>0</v>
@@ -18550,7 +18550,7 @@
     </row>
     <row r="742" spans="1:3">
       <c r="A742" s="14" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B742" s="14" t="s">
         <v>0</v>
@@ -18561,7 +18561,7 @@
     </row>
     <row r="743" spans="1:3">
       <c r="A743" s="14" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B743" s="14" t="s">
         <v>0</v>
@@ -18572,7 +18572,7 @@
     </row>
     <row r="744" spans="1:3">
       <c r="A744" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B744" s="14"/>
       <c r="C744" s="14" t="s">
@@ -18581,7 +18581,7 @@
     </row>
     <row r="745" spans="1:3">
       <c r="A745" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B745" s="14"/>
       <c r="C745" s="14" t="s">
@@ -18590,7 +18590,7 @@
     </row>
     <row r="746" spans="1:3">
       <c r="A746" s="14" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B746" s="14" t="s">
         <v>0</v>
@@ -18601,7 +18601,7 @@
     </row>
     <row r="747" spans="1:3">
       <c r="A747" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B747" s="14" t="s">
         <v>0</v>
@@ -18612,7 +18612,7 @@
     </row>
     <row r="748" spans="1:3">
       <c r="A748" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B748" s="14" t="s">
         <v>0</v>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="749" spans="1:3">
       <c r="A749" s="14" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B749" s="14" t="s">
         <v>0</v>
@@ -18634,7 +18634,7 @@
     </row>
     <row r="750" spans="1:3">
       <c r="A750" s="14" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B750" s="14" t="s">
         <v>0</v>
@@ -18645,7 +18645,7 @@
     </row>
     <row r="751" spans="1:3">
       <c r="A751" s="14" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B751" s="14"/>
       <c r="C751" s="14" t="s">
@@ -18654,7 +18654,7 @@
     </row>
     <row r="752" spans="1:3">
       <c r="A752" s="14" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B752" s="14"/>
       <c r="C752" s="14" t="s">
@@ -18663,7 +18663,7 @@
     </row>
     <row r="753" spans="1:3">
       <c r="A753" s="14" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B753" s="14"/>
       <c r="C753" s="14" t="s">
@@ -18672,7 +18672,7 @@
     </row>
     <row r="754" spans="1:3">
       <c r="A754" s="14" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B754" s="14"/>
       <c r="C754" s="14" t="s">
@@ -18681,7 +18681,7 @@
     </row>
     <row r="755" spans="1:3">
       <c r="A755" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B755" s="14"/>
       <c r="C755" s="14" t="s">
@@ -18690,7 +18690,7 @@
     </row>
     <row r="756" spans="1:3">
       <c r="A756" s="14" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B756" s="14"/>
       <c r="C756" s="14" t="s">
@@ -18699,7 +18699,7 @@
     </row>
     <row r="757" spans="1:3">
       <c r="A757" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B757" s="14" t="s">
         <v>0</v>
@@ -18710,7 +18710,7 @@
     </row>
     <row r="758" spans="1:3">
       <c r="A758" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B758" s="14" t="s">
         <v>0</v>
@@ -18721,7 +18721,7 @@
     </row>
     <row r="759" spans="1:3">
       <c r="A759" s="14" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B759" s="14" t="s">
         <v>0</v>
@@ -18732,7 +18732,7 @@
     </row>
     <row r="760" spans="1:3">
       <c r="A760" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B760" s="14" t="s">
         <v>0</v>
@@ -18743,7 +18743,7 @@
     </row>
     <row r="761" spans="1:3">
       <c r="A761" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B761" s="14"/>
       <c r="C761" s="14" t="s">
@@ -18752,7 +18752,7 @@
     </row>
     <row r="762" spans="1:3">
       <c r="A762" s="14" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B762" s="14"/>
       <c r="C762" s="14" t="s">
@@ -18761,7 +18761,7 @@
     </row>
     <row r="763" spans="1:3">
       <c r="A763" s="14" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B763" s="14"/>
       <c r="C763" s="14" t="s">
@@ -18770,7 +18770,7 @@
     </row>
     <row r="764" spans="1:3">
       <c r="A764" s="14" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B764" s="14" t="s">
         <v>0</v>
@@ -18781,7 +18781,7 @@
     </row>
     <row r="765" spans="1:3">
       <c r="A765" s="14" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B765" s="14" t="s">
         <v>0</v>
@@ -18792,7 +18792,7 @@
     </row>
     <row r="766" spans="1:3">
       <c r="A766" s="14" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B766" s="14" t="s">
         <v>0</v>
@@ -18803,7 +18803,7 @@
     </row>
     <row r="767" spans="1:3">
       <c r="A767" s="14" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B767" s="14" t="s">
         <v>0</v>
@@ -18814,7 +18814,7 @@
     </row>
     <row r="768" spans="1:3">
       <c r="A768" s="14" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B768" s="14"/>
       <c r="C768" s="14" t="s">
@@ -18823,10 +18823,10 @@
     </row>
     <row r="769" spans="1:3">
       <c r="A769" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B769" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C769" s="14" t="s">
         <v>45</v>
@@ -18834,7 +18834,7 @@
     </row>
     <row r="770" spans="1:3">
       <c r="A770" s="14" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B770" s="14"/>
       <c r="C770" s="14" t="s">
@@ -18843,7 +18843,7 @@
     </row>
     <row r="771" spans="1:3">
       <c r="A771" s="14" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B771" s="14" t="s">
         <v>0</v>
@@ -18854,7 +18854,7 @@
     </row>
     <row r="772" spans="1:3">
       <c r="A772" s="14" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B772" s="14"/>
       <c r="C772" s="14" t="s">
@@ -18863,7 +18863,7 @@
     </row>
     <row r="773" spans="1:3">
       <c r="A773" s="14" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B773" s="14"/>
       <c r="C773" s="14" t="s">
@@ -18872,7 +18872,7 @@
     </row>
     <row r="774" spans="1:3">
       <c r="A774" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B774" s="14"/>
       <c r="C774" s="14" t="s">
@@ -18881,7 +18881,7 @@
     </row>
     <row r="775" spans="1:3">
       <c r="A775" s="14" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B775" s="14"/>
       <c r="C775" s="14" t="s">
@@ -18890,7 +18890,7 @@
     </row>
     <row r="776" spans="1:3">
       <c r="A776" s="14" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B776" s="14"/>
       <c r="C776" s="14" t="s">
@@ -18899,7 +18899,7 @@
     </row>
     <row r="777" spans="1:3">
       <c r="A777" s="14" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B777" s="14"/>
       <c r="C777" s="14" t="s">
@@ -18908,7 +18908,7 @@
     </row>
     <row r="778" spans="1:3">
       <c r="A778" s="14" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B778" s="14"/>
       <c r="C778" s="14" t="s">
@@ -18917,7 +18917,7 @@
     </row>
     <row r="779" spans="1:3">
       <c r="A779" s="14" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B779" s="14"/>
       <c r="C779" s="14" t="s">
@@ -18926,7 +18926,7 @@
     </row>
     <row r="780" spans="1:3">
       <c r="A780" s="14" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B780" s="14"/>
       <c r="C780" s="14" t="s">
@@ -18935,7 +18935,7 @@
     </row>
     <row r="781" spans="1:3">
       <c r="A781" s="14" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B781" s="14"/>
       <c r="C781" s="14" t="s">
@@ -18944,7 +18944,7 @@
     </row>
     <row r="782" spans="1:3">
       <c r="A782" s="14" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B782" s="14"/>
       <c r="C782" s="14" t="s">
@@ -18953,7 +18953,7 @@
     </row>
     <row r="783" spans="1:3">
       <c r="A783" s="14" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B783" s="14"/>
       <c r="C783" s="14" t="s">
@@ -18962,7 +18962,7 @@
     </row>
     <row r="784" spans="1:3">
       <c r="A784" s="14" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B784" s="14"/>
       <c r="C784" s="14" t="s">
@@ -18971,7 +18971,7 @@
     </row>
     <row r="785" spans="1:3">
       <c r="A785" s="14" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B785" s="14"/>
       <c r="C785" s="14" t="s">
@@ -18980,7 +18980,7 @@
     </row>
     <row r="786" spans="1:3">
       <c r="A786" s="14" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B786" s="14"/>
       <c r="C786" s="14" t="s">
@@ -18989,7 +18989,7 @@
     </row>
     <row r="787" spans="1:3">
       <c r="A787" s="14" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B787" s="14" t="s">
         <v>0</v>
@@ -19000,7 +19000,7 @@
     </row>
     <row r="788" spans="1:3">
       <c r="A788" s="14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B788" s="14" t="s">
         <v>0</v>
@@ -19011,7 +19011,7 @@
     </row>
     <row r="789" spans="1:3">
       <c r="A789" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B789" s="14" t="s">
         <v>0</v>
@@ -19033,7 +19033,7 @@
     </row>
     <row r="791" spans="1:3">
       <c r="A791" s="14" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B791" s="14" t="s">
         <v>0</v>
@@ -19044,7 +19044,7 @@
     </row>
     <row r="792" spans="1:3">
       <c r="A792" s="14" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B792" s="14" t="s">
         <v>0</v>
@@ -19055,7 +19055,7 @@
     </row>
     <row r="793" spans="1:3">
       <c r="A793" s="14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B793" s="14" t="s">
         <v>0</v>
@@ -19066,7 +19066,7 @@
     </row>
     <row r="794" spans="1:3">
       <c r="A794" s="14" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B794" s="14"/>
       <c r="C794" s="14" t="s">
@@ -19075,7 +19075,7 @@
     </row>
     <row r="795" spans="1:3">
       <c r="A795" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B795" s="14"/>
       <c r="C795" s="14" t="s">
@@ -19084,7 +19084,7 @@
     </row>
     <row r="796" spans="1:3">
       <c r="A796" s="14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B796" s="14" t="s">
         <v>0</v>
@@ -19095,7 +19095,7 @@
     </row>
     <row r="797" spans="1:3">
       <c r="A797" s="14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B797" s="14"/>
       <c r="C797" s="14" t="s">
@@ -19104,7 +19104,7 @@
     </row>
     <row r="798" spans="1:3">
       <c r="A798" s="14" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B798" s="14"/>
       <c r="C798" s="14" t="s">
@@ -19113,7 +19113,7 @@
     </row>
     <row r="799" spans="1:3">
       <c r="A799" s="14" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B799" s="14" t="s">
         <v>0</v>
@@ -19124,7 +19124,7 @@
     </row>
     <row r="800" spans="1:3">
       <c r="A800" s="18" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B800" s="14"/>
       <c r="C800" s="14" t="s">
@@ -19133,7 +19133,7 @@
     </row>
     <row r="801" spans="1:3">
       <c r="A801" s="14" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B801" s="14" t="s">
         <v>0</v>
@@ -19144,7 +19144,7 @@
     </row>
     <row r="802" spans="1:3">
       <c r="A802" s="18" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B802" s="14"/>
       <c r="C802" s="14" t="s">
@@ -19153,7 +19153,7 @@
     </row>
     <row r="803" spans="1:3">
       <c r="A803" s="14" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B803" s="14"/>
       <c r="C803" s="14" t="s">
@@ -19162,7 +19162,7 @@
     </row>
     <row r="804" spans="1:3">
       <c r="A804" s="14" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B804" s="14"/>
       <c r="C804" s="14" t="s">
@@ -19171,7 +19171,7 @@
     </row>
     <row r="805" spans="1:3">
       <c r="A805" s="14" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B805" s="14"/>
       <c r="C805" s="14" t="s">
@@ -19180,18 +19180,18 @@
     </row>
     <row r="806" spans="1:3" ht="29">
       <c r="A806" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B806" s="14" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C806" s="14" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="807" spans="1:3">
       <c r="A807" s="14" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B807" s="14"/>
       <c r="C807" s="14" t="s">
@@ -19200,7 +19200,7 @@
     </row>
     <row r="808" spans="1:3">
       <c r="A808" s="14" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B808" s="14"/>
       <c r="C808" s="14" t="s">
@@ -19209,7 +19209,7 @@
     </row>
     <row r="809" spans="1:3">
       <c r="A809" s="14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B809" s="14"/>
       <c r="C809" s="14" t="s">
@@ -19218,7 +19218,7 @@
     </row>
     <row r="810" spans="1:3">
       <c r="A810" s="14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B810" s="14"/>
       <c r="C810" s="14" t="s">
@@ -19404,7 +19404,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C1" s="14">
         <v>22</v>
@@ -19412,10 +19412,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C2" s="14">
         <v>22</v>
@@ -19423,7 +19423,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C3" s="14">
         <v>22</v>
@@ -19431,7 +19431,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C4" s="14">
         <v>22</v>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C5" s="14">
         <v>22</v>
@@ -19447,10 +19447,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C6" s="14">
         <v>22</v>
@@ -19458,10 +19458,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C7" s="14">
         <v>22</v>
@@ -19469,7 +19469,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C8" s="14">
         <v>22</v>
@@ -19477,10 +19477,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C9" s="14">
         <v>22</v>
@@ -19488,10 +19488,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C10" s="14">
         <v>22</v>
@@ -19499,7 +19499,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C11" s="14">
         <v>22</v>
@@ -19507,10 +19507,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="14" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C12" s="14">
         <v>22</v>
@@ -19518,10 +19518,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C13" s="14">
         <v>22</v>
@@ -19529,10 +19529,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="14" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C14" s="14">
         <v>22</v>
@@ -19540,10 +19540,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C15" s="14">
         <v>22</v>
@@ -19551,7 +19551,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C16" s="14">
         <v>22</v>
@@ -19559,10 +19559,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C17" s="14">
         <v>22</v>
@@ -19570,10 +19570,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="14" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C18" s="14">
         <v>22</v>
@@ -19581,10 +19581,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C19" s="14">
         <v>22</v>
@@ -19592,7 +19592,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C20" s="14">
         <v>22</v>
@@ -19600,7 +19600,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C21" s="14">
         <v>22</v>
@@ -19608,7 +19608,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C22" s="14">
         <v>22</v>
@@ -19616,7 +19616,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C23" s="14">
         <v>22</v>
@@ -19624,7 +19624,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C24" s="14">
         <v>22</v>
@@ -19632,7 +19632,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="14" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C25" s="14">
         <v>22</v>
@@ -19640,7 +19640,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="14" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C26" s="14">
         <v>22</v>
@@ -19648,7 +19648,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C27" s="14">
         <v>22</v>
@@ -19656,7 +19656,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C28" s="14">
         <v>22</v>
@@ -19664,7 +19664,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C29" s="14">
         <v>22</v>
@@ -19672,7 +19672,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C30" s="14">
         <v>22</v>
@@ -19680,7 +19680,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C31" s="14">
         <v>22</v>
@@ -19688,7 +19688,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="14" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C32" s="14">
         <v>22</v>
@@ -19696,7 +19696,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C33" s="14">
         <v>22</v>
@@ -19704,10 +19704,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C34" s="14">
         <v>22</v>
@@ -19715,10 +19715,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="14" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C35" s="14">
         <v>22</v>
@@ -19726,10 +19726,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="14" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C36" s="14">
         <v>22</v>
@@ -19737,7 +19737,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="14" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C37" s="14">
         <v>22</v>
@@ -19753,7 +19753,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="14" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C39" s="14">
         <v>22</v>
@@ -19761,10 +19761,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C40" s="14">
         <v>22</v>
@@ -19772,10 +19772,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="14" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C41" s="14">
         <v>22</v>
@@ -19783,10 +19783,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="14" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C42" s="14">
         <v>22</v>
@@ -19794,7 +19794,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C43" s="14">
         <v>22</v>
@@ -19802,10 +19802,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="14" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C44" s="14">
         <v>22</v>
@@ -19813,10 +19813,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C45" s="14">
         <v>22</v>
@@ -19824,7 +19824,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C46" s="14">
         <v>22</v>
@@ -19832,7 +19832,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C47" s="14">
         <v>22</v>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C48" s="14">
         <v>22</v>
@@ -19856,10 +19856,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="14" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C50" s="14">
         <v>22</v>
@@ -19867,10 +19867,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="14" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C51" s="14">
         <v>22</v>
@@ -19878,7 +19878,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="14" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C52" s="14">
         <v>22</v>
@@ -19886,10 +19886,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="14" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C53" s="14">
         <v>22</v>
@@ -19897,7 +19897,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="14" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C54" s="14">
         <v>22</v>
@@ -19905,7 +19905,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="14" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C55" s="14">
         <v>22</v>
@@ -19916,7 +19916,7 @@
         <v>257</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C56" s="14">
         <v>22</v>
@@ -19924,10 +19924,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="14" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C57" s="14">
         <v>22</v>
@@ -19943,7 +19943,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="14" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C59" s="14">
         <v>22</v>
@@ -19951,10 +19951,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="14" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C60" s="14">
         <v>22</v>
@@ -19962,10 +19962,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="14" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C61" s="14">
         <v>22</v>
@@ -19973,10 +19973,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="14" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C62" s="14">
         <v>22</v>
@@ -19984,7 +19984,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="14" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C63" s="14">
         <v>22</v>
@@ -19992,10 +19992,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="14" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C64" s="14">
         <v>22</v>
@@ -20003,10 +20003,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="14" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C65" s="14">
         <v>22</v>
@@ -20014,10 +20014,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="14" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C66" s="14">
         <v>22</v>
@@ -20025,10 +20025,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="14" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C67" s="14">
         <v>22</v>
@@ -20036,7 +20036,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="14" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C68" s="14">
         <v>22</v>
@@ -20044,10 +20044,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="14" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C69" s="14">
         <v>22</v>
@@ -20055,10 +20055,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="14" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C70" s="14">
         <v>22</v>
@@ -20066,10 +20066,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C71" s="14">
         <v>22</v>
@@ -20077,10 +20077,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="14" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C72" s="14">
         <v>22</v>
@@ -20088,10 +20088,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="14" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C73" s="14">
         <v>22</v>
@@ -20099,10 +20099,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="14" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C74" s="14">
         <v>22</v>
@@ -20110,10 +20110,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="14" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C75" s="14">
         <v>22</v>
@@ -20121,10 +20121,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="14" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C76" s="14">
         <v>22</v>
@@ -20135,7 +20135,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C77" s="14">
         <v>22</v>
@@ -20143,10 +20143,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C78" s="14">
         <v>22</v>
@@ -20154,10 +20154,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="14" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C79" s="14">
         <v>22</v>
@@ -20165,10 +20165,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="14" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C80" s="14">
         <v>22</v>
@@ -20176,10 +20176,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="14" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C81" s="14">
         <v>22</v>
@@ -20187,10 +20187,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="14" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C82" s="14">
         <v>22</v>
@@ -20198,7 +20198,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="14" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C83" s="14">
         <v>22</v>
@@ -20206,7 +20206,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="14" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C84" s="14">
         <v>22</v>
@@ -20234,72 +20234,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
@@ -20322,282 +20322,282 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.5">
       <c r="A1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.5">
       <c r="A2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.5">
       <c r="A3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.5">
       <c r="A4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.5">
       <c r="A5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.5">
       <c r="A6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.5">
       <c r="A7" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.5">
       <c r="A8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="12" customHeight="1">
       <c r="A9" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="12" customHeight="1">
       <c r="A10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="12" customHeight="1">
       <c r="A11" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="12" customHeight="1">
       <c r="A12" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="12" customHeight="1">
       <c r="A14" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="12" customHeight="1">
       <c r="A15" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="12" customHeight="1">
       <c r="A16" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="12" customHeight="1">
       <c r="A17" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="12" customHeight="1">
       <c r="A18" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="12" customHeight="1">
       <c r="A19" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="12" customHeight="1">
       <c r="A20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="12" customHeight="1">
       <c r="A21" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="12" customHeight="1">
       <c r="A22" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="12" customHeight="1">
       <c r="A23" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="12" customHeight="1">
       <c r="A24" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="12" customHeight="1">
       <c r="A25" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="12" customHeight="1">
       <c r="A26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="12" customHeight="1">
       <c r="A27" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="12" customHeight="1">
       <c r="A28" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="12" customHeight="1">
       <c r="A29" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="12" customHeight="1">
       <c r="A30" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="12" customHeight="1">
       <c r="A31" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="12" customHeight="1">
       <c r="A32" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="12" customHeight="1">
       <c r="A33" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="12" customHeight="1">
       <c r="A34" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="12" customHeight="1">
       <c r="A35" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="12" customHeight="1">
       <c r="A36" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="12" customHeight="1">
       <c r="A37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="12" customHeight="1">
       <c r="A38" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="12" customHeight="1">
       <c r="A39" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="12" customHeight="1">
       <c r="A40" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="12" customHeight="1">
       <c r="A41" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="12" customHeight="1">
       <c r="A42" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="12" customHeight="1">
       <c r="A43" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="12" customHeight="1">
       <c r="A44" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="12" customHeight="1">
       <c r="A45" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="12" customHeight="1">
       <c r="A46" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="12" customHeight="1">
       <c r="A47" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="12" customHeight="1">
       <c r="A48" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="12" customHeight="1">
       <c r="A49" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="12" customHeight="1">
       <c r="A50" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="12" customHeight="1">
       <c r="A51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="12" customHeight="1">
       <c r="A52" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="12" customHeight="1">
       <c r="A53" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="12" customHeight="1">
       <c r="A54" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="12" customHeight="1">
       <c r="A55" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="12" customHeight="1">
       <c r="A56" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -20625,7 +20625,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="14" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14" t="s">
@@ -20634,7 +20634,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
@@ -20643,7 +20643,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
@@ -20652,7 +20652,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
@@ -20661,10 +20661,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>41</v>
@@ -20672,18 +20672,18 @@
     </row>
     <row r="6" spans="1:3" ht="29">
       <c r="A6" s="14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="14" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
@@ -20692,10 +20692,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>41</v>
@@ -20703,10 +20703,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>41</v>
@@ -20714,7 +20714,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14" t="s">
@@ -20723,7 +20723,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="14" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
@@ -20741,16 +20741,16 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="14" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14" t="s">
@@ -20759,7 +20759,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="14" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
@@ -20779,7 +20779,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="14" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14" t="s">
@@ -20788,16 +20788,16 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="14" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="14" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14" t="s">
@@ -20806,7 +20806,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="14" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14" t="s">
@@ -20815,7 +20815,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="14" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
@@ -20833,7 +20833,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="14" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
@@ -20860,7 +20860,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="14" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
@@ -20869,7 +20869,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="14" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
@@ -20878,7 +20878,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="14" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
@@ -20887,18 +20887,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="14" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
@@ -20907,7 +20907,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="14" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14" t="s">
@@ -20916,7 +20916,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="14" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14" t="s">
@@ -20925,7 +20925,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="14" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
@@ -20934,7 +20934,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="14" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14" t="s">
@@ -20943,7 +20943,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="14" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14" t="s">
@@ -20952,7 +20952,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="14" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14" t="s">
@@ -20961,10 +20961,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="14" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>41</v>
@@ -20972,7 +20972,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="14" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14" t="s">
@@ -20981,7 +20981,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="14" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="14" t="s">
@@ -20990,7 +20990,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="14" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="14" t="s">
@@ -20999,7 +20999,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="14" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
@@ -21008,7 +21008,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="14" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14" t="s">
@@ -21017,18 +21017,18 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="14" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="14" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>0</v>
@@ -21039,10 +21039,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="14" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>41</v>
@@ -21050,10 +21050,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="14" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>41</v>
@@ -21061,10 +21061,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="14" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>41</v>
@@ -21072,7 +21072,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="14" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14" t="s">
@@ -21081,7 +21081,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="14" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B49" s="14"/>
       <c r="C49" s="14" t="s">
@@ -21090,7 +21090,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="14" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>361</v>
@@ -21101,7 +21101,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="14" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
@@ -21119,7 +21119,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="14" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
@@ -21128,7 +21128,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="14" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14" t="s">
@@ -21137,7 +21137,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="14" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="14" t="s">
@@ -21146,7 +21146,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="14" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="14" t="s">
@@ -21155,7 +21155,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="14" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="14" t="s">
@@ -21164,10 +21164,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="14" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>41</v>
@@ -21175,10 +21175,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="14" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>41</v>
@@ -21186,10 +21186,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="14" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>41</v>
@@ -21197,7 +21197,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>0</v>
@@ -21208,7 +21208,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="14" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="14" t="s">
@@ -21217,7 +21217,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="14" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14" t="s">
@@ -21226,31 +21226,31 @@
     </row>
     <row r="64" spans="1:3" ht="29">
       <c r="A64" s="14" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B64" s="14" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>1277</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="14" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="14" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="14" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
   </sheetData>
@@ -21275,18 +21275,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
@@ -21297,7 +21297,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -21319,24 +21319,24 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -21347,34 +21347,34 @@
         <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -21385,7 +21385,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>14</v>
@@ -21396,62 +21396,62 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>15</v>
@@ -21462,46 +21462,46 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -21585,32 +21585,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -21620,42 +21620,42 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="16" spans="1:1">
